--- a/5_results/5_1_original/predictors_set_2.xlsx
+++ b/5_results/5_1_original/predictors_set_2.xlsx
@@ -714,18 +714,18 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.04835200309753418</v>
+        <v>0.06849813461303711</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>0.8464725017547607</v>
+        <v>0.9806044101715088</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04835200309753418</v>
+        <v>0.06849813461303711</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>0.8464725017547607</v>
+        <v>0.9806044101715088</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -860,22 +860,22 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.003915309906005859</v>
+        <v>0.005999326705932617</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.004010915756225586</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5684294700622559</v>
+        <v>0.7737846374511719</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003915309906005859</v>
+        <v>0.005999326705932617</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.004010915756225586</v>
       </c>
       <c r="U3" t="n">
-        <v>0.5684294700622559</v>
+        <v>0.7737846374511719</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -1010,22 +1010,22 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.05281734466552734</v>
+        <v>0.06916403770446777</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03869938850402832</v>
+        <v>0.05053830146789551</v>
       </c>
       <c r="R4" t="n">
-        <v>0.8442826271057129</v>
+        <v>1.023000240325928</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05281734466552734</v>
+        <v>0.06916403770446777</v>
       </c>
       <c r="T4" t="n">
-        <v>0.03869938850402832</v>
+        <v>0.05053830146789551</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8442826271057129</v>
+        <v>1.023000240325928</v>
       </c>
       <c r="V4" t="n">
         <v>1</v>
@@ -1158,18 +1158,18 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.05988168716430664</v>
+        <v>0.05451869964599609</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>0.7159843444824219</v>
+        <v>0.8163976669311523</v>
       </c>
       <c r="S5" t="n">
-        <v>0.05988168716430664</v>
+        <v>0.05451869964599609</v>
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>0.7159843444824219</v>
+        <v>0.8163976669311523</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
@@ -1302,18 +1302,18 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0.1333920955657959</v>
+        <v>0.1461412906646729</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.002000331878662109</v>
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>0.1333920955657959</v>
+        <v>0.1461412906646729</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.004999876022338867</v>
+        <v>0.005510091781616211</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5945510864257812</v>
+        <v>0.8216977119445801</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004999876022338867</v>
+        <v>0.005510091781616211</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.5945510864257812</v>
+        <v>0.8216977119445801</v>
       </c>
       <c r="V7" t="n">
         <v>1</v>
@@ -1598,22 +1598,22 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.07050156593322754</v>
+        <v>0.06995844841003418</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03977346420288086</v>
+        <v>0.05160021781921387</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7384216785430908</v>
+        <v>0.847461462020874</v>
       </c>
       <c r="S8" t="n">
-        <v>0.07050156593322754</v>
+        <v>0.06995844841003418</v>
       </c>
       <c r="T8" t="n">
-        <v>0.03977346420288086</v>
+        <v>0.05160021781921387</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7384216785430908</v>
+        <v>0.847461462020874</v>
       </c>
       <c r="V8" t="n">
         <v>1</v>
@@ -1748,22 +1748,22 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0727839469909668</v>
+        <v>0.07230281829833984</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0526118278503418</v>
+        <v>0.05372929573059082</v>
       </c>
       <c r="R9" t="n">
-        <v>0.8993904590606689</v>
+        <v>0.8031158447265625</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0727839469909668</v>
+        <v>0.07230281829833984</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0526118278503418</v>
+        <v>0.05372929573059082</v>
       </c>
       <c r="U9" t="n">
-        <v>0.8993904590606689</v>
+        <v>0.8031158447265625</v>
       </c>
       <c r="V9" t="n">
         <v>1</v>
@@ -1896,18 +1896,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.06767416000366211</v>
+        <v>0.07576489448547363</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>0.6630043983459473</v>
+        <v>0.8391768932342529</v>
       </c>
       <c r="S10" t="n">
-        <v>0.06767416000366211</v>
+        <v>0.07576489448547363</v>
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>0.6630043983459473</v>
+        <v>0.8391768932342529</v>
       </c>
       <c r="V10" t="n">
         <v>1</v>
@@ -2042,22 +2042,22 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.01410818099975586</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5896978378295898</v>
+        <v>0.756605863571167</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004007101058959961</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.01410818099975586</v>
       </c>
       <c r="U11" t="n">
-        <v>0.5896978378295898</v>
+        <v>0.756605863571167</v>
       </c>
       <c r="V11" t="n">
         <v>1</v>
@@ -2144,7 +2144,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LightGBM_r15_FULL</t>
+          <t>XGBoost_r22_FULL</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2154,34 +2154,34 @@
         <v>0.9085714285714286</v>
       </c>
       <c r="D12" t="n">
-        <v>0.78125</v>
+        <v>0.8125</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7057142857142857</v>
+        <v>0.7257142857142858</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6952380952380952</v>
+        <v>0.7257142857142858</v>
       </c>
       <c r="H12" t="n">
-        <v>0.78125</v>
+        <v>0.8125</v>
       </c>
       <c r="I12" t="n">
         <v>0.7586167800453515</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K12" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.3784109173637782</v>
+        <v>-0.3678116786426242</v>
       </c>
       <c r="M12" t="n">
-        <v>0.229015470286218</v>
+        <v>0.2468763838345914</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
@@ -2190,18 +2190,18 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.004009723663330078</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>0.1567938327789307</v>
+        <v>0.05638885498046875</v>
       </c>
       <c r="S12" t="n">
-        <v>0.004009723663330078</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>0.1567938327789307</v>
+        <v>0.05638885498046875</v>
       </c>
       <c r="V12" t="n">
         <v>1</v>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="Y12" t="n">
         <v>19</v>
@@ -2222,16 +2222,16 @@
         <v>1</v>
       </c>
       <c r="AB12" t="n">
-        <v>659059</v>
+        <v>103328</v>
       </c>
       <c r="AC12" t="n">
-        <v>659059</v>
+        <v>103328</v>
       </c>
       <c r="AD12" t="n">
-        <v>659059</v>
+        <v>103328</v>
       </c>
       <c r="AE12" t="n">
-        <v>659059</v>
+        <v>103328</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>XGBoostModel</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr"/>
@@ -2252,12 +2252,12 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.018603888565740096, 'extra_trees': False, 'feature_fraction': 0.7421180622507277, 'min_data_in_leaf': 6, 'num_leaves': 22, 'num_boost_round': 263}</t>
+          <t>{'n_estimators': 69, 'learning_rate': 0.07792091886639502, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.6326947454697227, 'enable_categorical': False, 'max_depth': 6, 'min_child_weight': 1.0759464955561793}</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 263}</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
@@ -2288,7 +2288,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>XGBoost_r22_FULL</t>
+          <t>LightGBM_r15_FULL</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2298,34 +2298,34 @@
         <v>0.9085714285714286</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7257142857142858</v>
+        <v>0.7057142857142857</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7257142857142858</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="I13" t="n">
         <v>0.7586167800453515</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="K13" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.3678116786426242</v>
+        <v>-0.3784109173637782</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2468763838345914</v>
+        <v>0.229015470286218</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
@@ -2334,18 +2334,18 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.007014036178588867</v>
+        <v>0.004962444305419922</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>0.04322385787963867</v>
+        <v>0.1967127323150635</v>
       </c>
       <c r="S13" t="n">
-        <v>0.007014036178588867</v>
+        <v>0.004962444305419922</v>
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>0.04322385787963867</v>
+        <v>0.1967127323150635</v>
       </c>
       <c r="V13" t="n">
         <v>1</v>
@@ -2354,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="Y13" t="n">
         <v>19</v>
@@ -2366,16 +2366,16 @@
         <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>103328</v>
+        <v>659059</v>
       </c>
       <c r="AC13" t="n">
-        <v>103328</v>
+        <v>659059</v>
       </c>
       <c r="AD13" t="n">
-        <v>103328</v>
+        <v>659059</v>
       </c>
       <c r="AE13" t="n">
-        <v>103328</v>
+        <v>659059</v>
       </c>
       <c r="AF13" t="n">
         <v>0</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>XGBoostModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr"/>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>{'n_estimators': 69, 'learning_rate': 0.07792091886639502, 'n_jobs': -1, 'proc.max_category_levels': 100, 'objective': 'binary:logistic', 'booster': 'gbtree', 'colsample_bytree': 0.6326947454697227, 'enable_categorical': False, 'max_depth': 6, 'min_child_weight': 1.0759464955561793}</t>
+          <t>{'learning_rate': 0.018603888565740096, 'extra_trees': False, 'feature_fraction': 0.7421180622507277, 'min_data_in_leaf': 6, 'num_leaves': 22, 'num_boost_round': 263}</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'num_boost_round': 263}</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
@@ -2478,18 +2478,18 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.006185531616210938</v>
+        <v>0.006438732147216797</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>0.1831583976745605</v>
+        <v>0.3642306327819824</v>
       </c>
       <c r="S14" t="n">
-        <v>0.006185531616210938</v>
+        <v>0.006438732147216797</v>
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>0.1831583976745605</v>
+        <v>0.3642306327819824</v>
       </c>
       <c r="V14" t="n">
         <v>1</v>
@@ -2622,18 +2622,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.007122516632080078</v>
+        <v>0.008549690246582031</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>0.08667778968811035</v>
+        <v>0.1467940807342529</v>
       </c>
       <c r="S15" t="n">
-        <v>0.007122516632080078</v>
+        <v>0.008549690246582031</v>
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>0.08667778968811035</v>
+        <v>0.1467940807342529</v>
       </c>
       <c r="V15" t="n">
         <v>1</v>
@@ -2766,18 +2766,18 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.03158330917358398</v>
+        <v>0.03483748435974121</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>0.368302583694458</v>
+        <v>0.418149471282959</v>
       </c>
       <c r="S16" t="n">
-        <v>0.03158330917358398</v>
+        <v>0.03483748435974121</v>
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
-        <v>0.368302583694458</v>
+        <v>0.418149471282959</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
@@ -2910,18 +2910,18 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0659489631652832</v>
+        <v>0.06798481941223145</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>0.5246999263763428</v>
+        <v>0.6898128986358643</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0659489631652832</v>
+        <v>0.06798481941223145</v>
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
-        <v>0.5246999263763428</v>
+        <v>0.6898128986358643</v>
       </c>
       <c r="V17" t="n">
         <v>1</v>
@@ -3054,18 +3054,18 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.002004384994506836</v>
+        <v>0.003915786743164062</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0.1137087345123291</v>
+        <v>0.1446206569671631</v>
       </c>
       <c r="S18" t="n">
-        <v>0.002004384994506836</v>
+        <v>0.003915786743164062</v>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>0.1137087345123291</v>
+        <v>0.1446206569671631</v>
       </c>
       <c r="V18" t="n">
         <v>1</v>
@@ -3198,18 +3198,18 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.004012346267700195</v>
+        <v>0.004999637603759766</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>0.2165341377258301</v>
+        <v>0.2734277248382568</v>
       </c>
       <c r="S19" t="n">
-        <v>0.004012346267700195</v>
+        <v>0.004999637603759766</v>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>0.2165341377258301</v>
+        <v>0.2734277248382568</v>
       </c>
       <c r="V19" t="n">
         <v>1</v>
@@ -3342,18 +3342,18 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.002908468246459961</v>
+        <v>0.003973484039306641</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>0.08792757987976074</v>
+        <v>0.09289312362670898</v>
       </c>
       <c r="S20" t="n">
-        <v>0.002908468246459961</v>
+        <v>0.003973484039306641</v>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>0.08792757987976074</v>
+        <v>0.09289312362670898</v>
       </c>
       <c r="V20" t="n">
         <v>1</v>
@@ -3486,18 +3486,18 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.003000259399414062</v>
+        <v>0.003999710083007812</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>0.2549495697021484</v>
+        <v>0.2804098129272461</v>
       </c>
       <c r="S21" t="n">
-        <v>0.003000259399414062</v>
+        <v>0.003999710083007812</v>
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>0.2549495697021484</v>
+        <v>0.2804098129272461</v>
       </c>
       <c r="V21" t="n">
         <v>1</v>
@@ -3632,22 +3632,22 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.003999710083007812</v>
+        <v>0.004010677337646484</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.001711368560791016</v>
       </c>
       <c r="R22" t="n">
-        <v>0.6239898204803467</v>
+        <v>0.8599324226379395</v>
       </c>
       <c r="S22" t="n">
-        <v>0.003999710083007812</v>
+        <v>0.004010677337646484</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.001711368560791016</v>
       </c>
       <c r="U22" t="n">
-        <v>0.6239898204803467</v>
+        <v>0.8599324226379395</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
@@ -3780,18 +3780,18 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.006948947906494141</v>
+        <v>0.009023666381835938</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>0.2510120868682861</v>
+        <v>0.3951787948608398</v>
       </c>
       <c r="S23" t="n">
-        <v>0.006948947906494141</v>
+        <v>0.009023666381835938</v>
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
-        <v>0.2510120868682861</v>
+        <v>0.3951787948608398</v>
       </c>
       <c r="V23" t="n">
         <v>1</v>
@@ -3924,18 +3924,18 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.008016347885131836</v>
+        <v>0.008594751358032227</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>0.1752521991729736</v>
+        <v>0.2529096603393555</v>
       </c>
       <c r="S24" t="n">
-        <v>0.008016347885131836</v>
+        <v>0.008594751358032227</v>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>0.1752521991729736</v>
+        <v>0.2529096603393555</v>
       </c>
       <c r="V24" t="n">
         <v>1</v>
@@ -4068,18 +4068,18 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>0.002998828887939453</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>0.07887887954711914</v>
+        <v>0.09421682357788086</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.002998828887939453</v>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
-        <v>0.07887887954711914</v>
+        <v>0.09421682357788086</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -4166,7 +4166,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CatBoost_r128_FULL</t>
+          <t>CatBoost_r50_FULL</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4179,13 +4179,13 @@
         <v>0.8125</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7771428571428571</v>
+        <v>0.7257142857142858</v>
       </c>
       <c r="F26" t="n">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G26" t="n">
-        <v>0.75</v>
+        <v>0.7257142857142858</v>
       </c>
       <c r="H26" t="n">
         <v>0.8125</v>
@@ -4194,16 +4194,16 @@
         <v>0.7467120181405895</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.4071175685328777</v>
+        <v>-0.3914294817338296</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1815817265504097</v>
+        <v>0.2073354281185139</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
@@ -4212,18 +4212,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.004009246826171875</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>0.6536679267883301</v>
+        <v>0.09577465057373047</v>
       </c>
       <c r="S26" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.004009246826171875</v>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>0.6536679267883301</v>
+        <v>0.09577465057373047</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
@@ -4232,7 +4232,7 @@
         <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="Y26" t="n">
         <v>19</v>
@@ -4244,16 +4244,16 @@
         <v>1</v>
       </c>
       <c r="AB26" t="n">
-        <v>743482</v>
+        <v>71928</v>
       </c>
       <c r="AC26" t="n">
-        <v>743482</v>
+        <v>71928</v>
       </c>
       <c r="AD26" t="n">
-        <v>743482</v>
+        <v>71928</v>
       </c>
       <c r="AE26" t="n">
-        <v>743482</v>
+        <v>71928</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -4274,12 +4274,12 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>{'iterations': 154, 'learning_rate': 0.036232951900213306, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.640921865280573, 'max_ctr_complexity': 3, 'one_hot_max_size': 5}</t>
+          <t>{'iterations': 79, 'learning_rate': 0.07092851311746352, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7018061518087038, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>{'iterations': 154}</t>
+          <t>{'iterations': 79}</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
@@ -4310,7 +4310,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CatBoost_r50_FULL</t>
+          <t>CatBoost_r9_FULL</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4320,34 +4320,34 @@
         <v>0.8971428571428571</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7257142857142858</v>
+        <v>0.7057142857142857</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7257142857142858</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="I27" t="n">
         <v>0.7467120181405895</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="K27" t="n">
         <v>0.5714285714285714</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.3914294817338296</v>
+        <v>-0.4235158458694447</v>
       </c>
       <c r="M27" t="n">
-        <v>0.2073354281185139</v>
+        <v>0.15509068796322</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
@@ -4356,18 +4356,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.002004146575927734</v>
+        <v>0.004010438919067383</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>0.0898888111114502</v>
+        <v>1.099530458450317</v>
       </c>
       <c r="S27" t="n">
-        <v>0.002004146575927734</v>
+        <v>0.004010438919067383</v>
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>0.0898888111114502</v>
+        <v>1.099530458450317</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="Y27" t="n">
         <v>19</v>
@@ -4388,16 +4388,16 @@
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>71928</v>
+        <v>912382</v>
       </c>
       <c r="AC27" t="n">
-        <v>71928</v>
+        <v>912382</v>
       </c>
       <c r="AD27" t="n">
-        <v>71928</v>
+        <v>912382</v>
       </c>
       <c r="AE27" t="n">
-        <v>71928</v>
+        <v>912382</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -4418,12 +4418,12 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>{'iterations': 79, 'learning_rate': 0.07092851311746352, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 4, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7018061518087038, 'max_ctr_complexity': 1, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 190, 'learning_rate': 0.031375015734637225, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7997999596449104, 'max_ctr_complexity': 2, 'one_hot_max_size': 3}</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>{'iterations': 79}</t>
+          <t>{'iterations': 190}</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
@@ -4454,7 +4454,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CatBoost_r9_FULL</t>
+          <t>CatBoost_r180_FULL</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4488,10 +4488,10 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.4235158458694447</v>
+        <v>-0.4205155391771714</v>
       </c>
       <c r="M28" t="n">
-        <v>0.15509068796322</v>
+        <v>0.1599051850925884</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
@@ -4500,18 +4500,18 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.003896713256835938</v>
+        <v>0.004162311553955078</v>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>0.8620712757110596</v>
+        <v>0.5369439125061035</v>
       </c>
       <c r="S28" t="n">
-        <v>0.003896713256835938</v>
+        <v>0.004162311553955078</v>
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>0.8620712757110596</v>
+        <v>0.5369439125061035</v>
       </c>
       <c r="V28" t="n">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>125</v>
+        <v>196</v>
       </c>
       <c r="Y28" t="n">
         <v>19</v>
@@ -4532,16 +4532,16 @@
         <v>1</v>
       </c>
       <c r="AB28" t="n">
-        <v>912382</v>
+        <v>398034</v>
       </c>
       <c r="AC28" t="n">
-        <v>912382</v>
+        <v>398034</v>
       </c>
       <c r="AD28" t="n">
-        <v>912382</v>
+        <v>398034</v>
       </c>
       <c r="AE28" t="n">
-        <v>912382</v>
+        <v>398034</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -4562,12 +4562,12 @@
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>{'iterations': 190, 'learning_rate': 0.031375015734637225, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 2.7997999596449104, 'max_ctr_complexity': 2, 'one_hot_max_size': 3}</t>
+          <t>{'iterations': 118, 'learning_rate': 0.055406199833457785, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 4.43335055453705, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>{'iterations': 190}</t>
+          <t>{'iterations': 118}</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
@@ -4598,7 +4598,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CatBoost_r180_FULL</t>
+          <t>CatBoost_r128_FULL</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4608,34 +4608,34 @@
         <v>0.8971428571428571</v>
       </c>
       <c r="D29" t="n">
-        <v>0.78125</v>
+        <v>0.8125</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7057142857142857</v>
+        <v>0.7771428571428571</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6952380952380952</v>
+        <v>0.75</v>
       </c>
       <c r="H29" t="n">
-        <v>0.78125</v>
+        <v>0.8125</v>
       </c>
       <c r="I29" t="n">
         <v>0.7467120181405895</v>
       </c>
       <c r="J29" t="n">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="K29" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.4205155391771714</v>
+        <v>-0.4071175685328777</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1599051850925884</v>
+        <v>0.1815817265504097</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
@@ -4644,18 +4644,18 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.004144191741943359</v>
+        <v>0.006010532379150391</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>0.3805801868438721</v>
+        <v>0.9361467361450195</v>
       </c>
       <c r="S29" t="n">
-        <v>0.004144191741943359</v>
+        <v>0.006010532379150391</v>
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>0.3805801868438721</v>
+        <v>0.9361467361450195</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="Y29" t="n">
         <v>19</v>
@@ -4676,16 +4676,16 @@
         <v>1</v>
       </c>
       <c r="AB29" t="n">
-        <v>398034</v>
+        <v>743482</v>
       </c>
       <c r="AC29" t="n">
-        <v>398034</v>
+        <v>743482</v>
       </c>
       <c r="AD29" t="n">
-        <v>398034</v>
+        <v>743482</v>
       </c>
       <c r="AE29" t="n">
-        <v>398034</v>
+        <v>743482</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -4706,12 +4706,12 @@
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>{'iterations': 118, 'learning_rate': 0.055406199833457785, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 7, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 4.43335055453705, 'max_ctr_complexity': 5, 'one_hot_max_size': 10}</t>
+          <t>{'iterations': 154, 'learning_rate': 0.036232951900213306, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.640921865280573, 'max_ctr_complexity': 3, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>{'iterations': 118}</t>
+          <t>{'iterations': 154}</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
@@ -4788,18 +4788,18 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.007601499557495117</v>
+        <v>0.004567384719848633</v>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>0.04731893539428711</v>
+        <v>0.06341218948364258</v>
       </c>
       <c r="S30" t="n">
-        <v>0.007601499557495117</v>
+        <v>0.004567384719848633</v>
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
-        <v>0.04731893539428711</v>
+        <v>0.06341218948364258</v>
       </c>
       <c r="V30" t="n">
         <v>1</v>
@@ -4934,22 +4934,22 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.06583905220031738</v>
+        <v>0.06587100028991699</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.03969407081604004</v>
+        <v>0.04915261268615723</v>
       </c>
       <c r="R31" t="n">
-        <v>0.7609093189239502</v>
+        <v>0.8212792873382568</v>
       </c>
       <c r="S31" t="n">
-        <v>0.06583905220031738</v>
+        <v>0.06587100028991699</v>
       </c>
       <c r="T31" t="n">
-        <v>0.03969407081604004</v>
+        <v>0.04915261268615723</v>
       </c>
       <c r="U31" t="n">
-        <v>0.7609093189239502</v>
+        <v>0.8212792873382568</v>
       </c>
       <c r="V31" t="n">
         <v>1</v>
@@ -5082,18 +5082,18 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.06783080101013184</v>
+        <v>0.06937527656555176</v>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>0.7311537265777588</v>
+        <v>0.8367104530334473</v>
       </c>
       <c r="S32" t="n">
-        <v>0.06783080101013184</v>
+        <v>0.06937527656555176</v>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>0.7311537265777588</v>
+        <v>0.8367104530334473</v>
       </c>
       <c r="V32" t="n">
         <v>1</v>
@@ -5226,18 +5226,18 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.06527829170227051</v>
+        <v>0.06850099563598633</v>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>0.7108569145202637</v>
+        <v>0.8503098487854004</v>
       </c>
       <c r="S33" t="n">
-        <v>0.06527829170227051</v>
+        <v>0.06850099563598633</v>
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
-        <v>0.7108569145202637</v>
+        <v>0.8503098487854004</v>
       </c>
       <c r="V33" t="n">
         <v>1</v>
@@ -5370,18 +5370,18 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.008015871047973633</v>
+        <v>0.006647348403930664</v>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>0.2315921783447266</v>
+        <v>0.3057260513305664</v>
       </c>
       <c r="S34" t="n">
-        <v>0.008015871047973633</v>
+        <v>0.006647348403930664</v>
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>0.2315921783447266</v>
+        <v>0.3057260513305664</v>
       </c>
       <c r="V34" t="n">
         <v>1</v>
@@ -5514,18 +5514,18 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.003348827362060547</v>
+        <v>0.004008054733276367</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>0.08167576789855957</v>
+        <v>0.08397865295410156</v>
       </c>
       <c r="S35" t="n">
-        <v>0.003348827362060547</v>
+        <v>0.004008054733276367</v>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>0.08167576789855957</v>
+        <v>0.08397865295410156</v>
       </c>
       <c r="V35" t="n">
         <v>1</v>
@@ -5658,18 +5658,18 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.008999109268188477</v>
+        <v>0.01071453094482422</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>0.07639431953430176</v>
+        <v>0.1028189659118652</v>
       </c>
       <c r="S36" t="n">
-        <v>0.008999109268188477</v>
+        <v>0.01071453094482422</v>
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>0.07639431953430176</v>
+        <v>0.1028189659118652</v>
       </c>
       <c r="V36" t="n">
         <v>1</v>
@@ -5804,22 +5804,22 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.006474018096923828</v>
+        <v>0.01002311706542969</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>0.006029605865478516</v>
       </c>
       <c r="R37" t="n">
-        <v>0.6181683540344238</v>
+        <v>0.9927756786346436</v>
       </c>
       <c r="S37" t="n">
-        <v>0.006474018096923828</v>
+        <v>0.01002311706542969</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.006029605865478516</v>
       </c>
       <c r="U37" t="n">
-        <v>0.6181683540344238</v>
+        <v>0.9927756786346436</v>
       </c>
       <c r="V37" t="n">
         <v>1</v>
@@ -5952,18 +5952,18 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.01057243347167969</v>
+        <v>0.01267242431640625</v>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>0.07497262954711914</v>
+        <v>0.08847856521606445</v>
       </c>
       <c r="S38" t="n">
-        <v>0.01057243347167969</v>
+        <v>0.01267242431640625</v>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>0.07497262954711914</v>
+        <v>0.08847856521606445</v>
       </c>
       <c r="V38" t="n">
         <v>1</v>
@@ -6098,22 +6098,22 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.004006385803222656</v>
+        <v>0.004007816314697266</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>0.003753423690795898</v>
       </c>
       <c r="R39" t="n">
-        <v>0.6216082572937012</v>
+        <v>0.8832452297210693</v>
       </c>
       <c r="S39" t="n">
-        <v>0.004006385803222656</v>
+        <v>0.004007816314697266</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.003753423690795898</v>
       </c>
       <c r="U39" t="n">
-        <v>0.6216082572937012</v>
+        <v>0.8832452297210693</v>
       </c>
       <c r="V39" t="n">
         <v>1</v>
@@ -6248,22 +6248,22 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.005626916885375977</v>
+        <v>0.007452726364135742</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.003892421722412109</v>
+        <v>0.002004384994506836</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4277808666229248</v>
+        <v>0.6081316471099854</v>
       </c>
       <c r="S40" t="n">
-        <v>0.005626916885375977</v>
+        <v>0.007452726364135742</v>
       </c>
       <c r="T40" t="n">
-        <v>0.003892421722412109</v>
+        <v>0.002004384994506836</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4277808666229248</v>
+        <v>0.6081316471099854</v>
       </c>
       <c r="V40" t="n">
         <v>1</v>
@@ -6396,18 +6396,18 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.002000808715820312</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>0.09398317337036133</v>
+        <v>0.1394858360290527</v>
       </c>
       <c r="S41" t="n">
-        <v>0.002000808715820312</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>0.09398317337036133</v>
+        <v>0.1394858360290527</v>
       </c>
       <c r="V41" t="n">
         <v>1</v>
@@ -6542,22 +6542,22 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.003300905227661133</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01583147048950195</v>
+        <v>0.002008914947509766</v>
       </c>
       <c r="R42" t="n">
-        <v>0.6666810512542725</v>
+        <v>0.99552321434021</v>
       </c>
       <c r="S42" t="n">
-        <v>0.003300905227661133</v>
+        <v>0.004012584686279297</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01583147048950195</v>
+        <v>0.002008914947509766</v>
       </c>
       <c r="U42" t="n">
-        <v>0.6666810512542725</v>
+        <v>0.99552321434021</v>
       </c>
       <c r="V42" t="n">
         <v>1</v>
@@ -6690,18 +6690,18 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.003858089447021484</v>
+        <v>0.005387783050537109</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>1.249442577362061</v>
+        <v>1.451457262039185</v>
       </c>
       <c r="S43" t="n">
-        <v>0.003858089447021484</v>
+        <v>0.005387783050537109</v>
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="n">
-        <v>1.249442577362061</v>
+        <v>1.451457262039185</v>
       </c>
       <c r="V43" t="n">
         <v>1</v>
@@ -6834,18 +6834,18 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.04819083213806152</v>
+        <v>0.06545758247375488</v>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>0.9194197654724121</v>
+        <v>0.9864115715026855</v>
       </c>
       <c r="S44" t="n">
-        <v>0.04819083213806152</v>
+        <v>0.06545758247375488</v>
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>0.9194197654724121</v>
+        <v>0.9864115715026855</v>
       </c>
       <c r="V44" t="n">
         <v>1</v>
@@ -6978,18 +6978,18 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.06664657592773438</v>
+        <v>0.08118939399719238</v>
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>0.5292844772338867</v>
+        <v>0.6952080726623535</v>
       </c>
       <c r="S45" t="n">
-        <v>0.06664657592773438</v>
+        <v>0.08118939399719238</v>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>0.5292844772338867</v>
+        <v>0.6952080726623535</v>
       </c>
       <c r="V45" t="n">
         <v>1</v>
@@ -7122,18 +7122,18 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.004010200500488281</v>
+        <v>0.003001689910888672</v>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>0.09955239295959473</v>
+        <v>0.1342132091522217</v>
       </c>
       <c r="S46" t="n">
-        <v>0.004010200500488281</v>
+        <v>0.003001689910888672</v>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="n">
-        <v>0.09955239295959473</v>
+        <v>0.1342132091522217</v>
       </c>
       <c r="V46" t="n">
         <v>1</v>
@@ -7268,22 +7268,22 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0631871223449707</v>
+        <v>0.06534194946289062</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.04144477844238281</v>
+        <v>0.05200481414794922</v>
       </c>
       <c r="R47" t="n">
-        <v>0.5445923805236816</v>
+        <v>0.6595849990844727</v>
       </c>
       <c r="S47" t="n">
-        <v>0.0631871223449707</v>
+        <v>0.06534194946289062</v>
       </c>
       <c r="T47" t="n">
-        <v>0.04144477844238281</v>
+        <v>0.05200481414794922</v>
       </c>
       <c r="U47" t="n">
-        <v>0.5445923805236816</v>
+        <v>0.6595849990844727</v>
       </c>
       <c r="V47" t="n">
         <v>1</v>
@@ -7416,18 +7416,18 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.01425790786743164</v>
+        <v>0.01202249526977539</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>0.1757476329803467</v>
+        <v>0.2585127353668213</v>
       </c>
       <c r="S48" t="n">
-        <v>0.01425790786743164</v>
+        <v>0.01202249526977539</v>
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>0.1757476329803467</v>
+        <v>0.2585127353668213</v>
       </c>
       <c r="V48" t="n">
         <v>1</v>
@@ -7562,22 +7562,22 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0212397575378418</v>
+        <v>0.02417516708374023</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01577019691467285</v>
+        <v>0.008026123046875</v>
       </c>
       <c r="R49" t="n">
-        <v>2.651420831680298</v>
+        <v>3.434002637863159</v>
       </c>
       <c r="S49" t="n">
-        <v>0.002775430679321289</v>
+        <v>0.003212690353393555</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>0.1160633563995361</v>
+        <v>0.1286566257476807</v>
       </c>
       <c r="V49" t="n">
         <v>2</v>
@@ -7726,18 +7726,18 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.002964496612548828</v>
+        <v>0.002549171447753906</v>
       </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="n">
-        <v>0.161604642868042</v>
+        <v>0.1951339244842529</v>
       </c>
       <c r="S50" t="n">
-        <v>0.002964496612548828</v>
+        <v>0.002549171447753906</v>
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="n">
-        <v>0.161604642868042</v>
+        <v>0.1951339244842529</v>
       </c>
       <c r="V50" t="n">
         <v>1</v>
@@ -7872,22 +7872,22 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.006011962890625</v>
+        <v>0.004621267318725586</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>2.825586557388306</v>
+        <v>4.034569025039673</v>
       </c>
       <c r="S51" t="n">
-        <v>0.006011962890625</v>
+        <v>0.004621267318725586</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>2.825586557388306</v>
+        <v>4.034569025039673</v>
       </c>
       <c r="V51" t="n">
         <v>1</v>
@@ -8022,22 +8022,22 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.008093595504760742</v>
+        <v>0.00677180290222168</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.003008365631103516</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="R52" t="n">
-        <v>0.4387626647949219</v>
+        <v>0.6398723125457764</v>
       </c>
       <c r="S52" t="n">
-        <v>0.008093595504760742</v>
+        <v>0.00677180290222168</v>
       </c>
       <c r="T52" t="n">
-        <v>0.003008365631103516</v>
+        <v>0.004012107849121094</v>
       </c>
       <c r="U52" t="n">
-        <v>0.4387626647949219</v>
+        <v>0.6398723125457764</v>
       </c>
       <c r="V52" t="n">
         <v>1</v>
@@ -8170,18 +8170,18 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.001999855041503906</v>
+        <v>0.002004146575927734</v>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>0.09812045097351074</v>
+        <v>0.1157276630401611</v>
       </c>
       <c r="S53" t="n">
-        <v>0.001999855041503906</v>
+        <v>0.002004146575927734</v>
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>0.09812045097351074</v>
+        <v>0.1157276630401611</v>
       </c>
       <c r="V53" t="n">
         <v>1</v>
@@ -8316,22 +8316,22 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.004360198974609375</v>
+        <v>0.004009485244750977</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0.8030643463134766</v>
+        <v>0.920680046081543</v>
       </c>
       <c r="S54" t="n">
-        <v>0.004360198974609375</v>
+        <v>0.004009485244750977</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0.8030643463134766</v>
+        <v>0.920680046081543</v>
       </c>
       <c r="V54" t="n">
         <v>1</v>
@@ -8464,18 +8464,18 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.004006385803222656</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>0.0731194019317627</v>
+        <v>0.1096153259277344</v>
       </c>
       <c r="S55" t="n">
-        <v>0.004006385803222656</v>
+        <v>0.002999544143676758</v>
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="n">
-        <v>0.0731194019317627</v>
+        <v>0.1096153259277344</v>
       </c>
       <c r="V55" t="n">
         <v>1</v>
@@ -8608,18 +8608,18 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.004006862640380859</v>
+        <v>0.006000041961669922</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>0.04879355430603027</v>
+        <v>0.05716991424560547</v>
       </c>
       <c r="S56" t="n">
-        <v>0.004006862640380859</v>
+        <v>0.006000041961669922</v>
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>0.04879355430603027</v>
+        <v>0.05716991424560547</v>
       </c>
       <c r="V56" t="n">
         <v>1</v>
@@ -8752,18 +8752,18 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.02824282646179199</v>
+        <v>0.01665973663330078</v>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>0.1581196784973145</v>
+        <v>0.2550959587097168</v>
       </c>
       <c r="S57" t="n">
-        <v>0.02824282646179199</v>
+        <v>0.01665973663330078</v>
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="n">
-        <v>0.1581196784973145</v>
+        <v>0.2550959587097168</v>
       </c>
       <c r="V57" t="n">
         <v>1</v>
@@ -8896,18 +8896,18 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.01115798950195312</v>
+        <v>0.01171422004699707</v>
       </c>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="n">
-        <v>0.08323526382446289</v>
+        <v>0.09878444671630859</v>
       </c>
       <c r="S58" t="n">
-        <v>0.01115798950195312</v>
+        <v>0.01171422004699707</v>
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="n">
-        <v>0.08323526382446289</v>
+        <v>0.09878444671630859</v>
       </c>
       <c r="V58" t="n">
         <v>1</v>
@@ -9040,18 +9040,18 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.002006292343139648</v>
+        <v>0.002004384994506836</v>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>0.08404350280761719</v>
+        <v>0.1139395236968994</v>
       </c>
       <c r="S59" t="n">
-        <v>0.002006292343139648</v>
+        <v>0.002004384994506836</v>
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="n">
-        <v>0.08404350280761719</v>
+        <v>0.1139395236968994</v>
       </c>
       <c r="V59" t="n">
         <v>1</v>
@@ -9138,7 +9138,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LightGBM_r15</t>
+          <t>CatBoost_r70</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -9148,37 +9148,37 @@
         <v>0.8857142857142857</v>
       </c>
       <c r="D60" t="n">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6342857142857142</v>
+        <v>0.6542857142857142</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G60" t="n">
-        <v>0.6342857142857142</v>
+        <v>0.6621417797888387</v>
       </c>
       <c r="H60" t="n">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="I60" t="n">
         <v>0.7262737262737263</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="K60" t="n">
         <v>0.4285714285714285</v>
       </c>
       <c r="L60" t="n">
-        <v>-0.4632727983472912</v>
+        <v>-0.4837812758437332</v>
       </c>
       <c r="M60" t="n">
-        <v>0.09263919055559934</v>
+        <v>0.06138178959993112</v>
       </c>
       <c r="N60" t="n">
-        <v>0.8183868549822497</v>
+        <v>0.8037875254690271</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -9186,22 +9186,22 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.00548243522644043</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.001746416091918945</v>
+        <v>0.002006769180297852</v>
       </c>
       <c r="R60" t="n">
-        <v>0.3630242347717285</v>
+        <v>1.553461790084839</v>
       </c>
       <c r="S60" t="n">
-        <v>0.00548243522644043</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="T60" t="n">
-        <v>0.001746416091918945</v>
+        <v>0.002006769180297852</v>
       </c>
       <c r="U60" t="n">
-        <v>0.3630242347717285</v>
+        <v>1.553461790084839</v>
       </c>
       <c r="V60" t="n">
         <v>1</v>
@@ -9210,7 +9210,7 @@
         <v>1</v>
       </c>
       <c r="X60" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Y60" t="n">
         <v>19</v>
@@ -9222,16 +9222,16 @@
         <v>1</v>
       </c>
       <c r="AB60" t="n">
-        <v>661730</v>
+        <v>270695</v>
       </c>
       <c r="AC60" t="n">
-        <v>661730</v>
+        <v>270695</v>
       </c>
       <c r="AD60" t="n">
-        <v>661730</v>
+        <v>270695</v>
       </c>
       <c r="AE60" t="n">
-        <v>661730</v>
+        <v>270695</v>
       </c>
       <c r="AF60" t="n">
         <v>0</v>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>LGBModel</t>
+          <t>CatBoostModel</t>
         </is>
       </c>
       <c r="AI60" t="inlineStr"/>
@@ -9252,12 +9252,12 @@
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>{'learning_rate': 0.018603888565740096, 'extra_trees': False, 'feature_fraction': 0.7421180622507277, 'min_data_in_leaf': 6, 'num_leaves': 22}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.03743901034980473, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.3584121369544215, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
         </is>
       </c>
       <c r="AL60" t="inlineStr">
         <is>
-          <t>{'num_boost_round': 263}</t>
+          <t>{'iterations': 115}</t>
         </is>
       </c>
       <c r="AM60" t="inlineStr">
@@ -9288,7 +9288,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CatBoost_r70</t>
+          <t>CatBoost_r128</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -9322,13 +9322,13 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.4837812758437332</v>
+        <v>-0.5388538888937792</v>
       </c>
       <c r="M61" t="n">
-        <v>0.06138178959993112</v>
+        <v>-0.01945208126570308</v>
       </c>
       <c r="N61" t="n">
-        <v>0.8037875254690271</v>
+        <v>0.7806989579048403</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -9336,22 +9336,22 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.006010055541992188</v>
+        <v>0.006072521209716797</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.01576781272888184</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
-        <v>1.061897277832031</v>
+        <v>3.706392526626587</v>
       </c>
       <c r="S61" t="n">
-        <v>0.006010055541992188</v>
+        <v>0.006072521209716797</v>
       </c>
       <c r="T61" t="n">
-        <v>0.01576781272888184</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>1.061897277832031</v>
+        <v>3.706392526626587</v>
       </c>
       <c r="V61" t="n">
         <v>1</v>
@@ -9360,7 +9360,7 @@
         <v>1</v>
       </c>
       <c r="X61" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="Y61" t="n">
         <v>19</v>
@@ -9372,16 +9372,16 @@
         <v>1</v>
       </c>
       <c r="AB61" t="n">
-        <v>270695</v>
+        <v>738417</v>
       </c>
       <c r="AC61" t="n">
-        <v>270695</v>
+        <v>738417</v>
       </c>
       <c r="AD61" t="n">
-        <v>270695</v>
+        <v>738417</v>
       </c>
       <c r="AE61" t="n">
-        <v>270695</v>
+        <v>738417</v>
       </c>
       <c r="AF61" t="n">
         <v>0</v>
@@ -9402,12 +9402,12 @@
       </c>
       <c r="AK61" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.03743901034980473, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 6, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.3584121369544215, 'max_ctr_complexity': 3, 'one_hot_max_size': 2}</t>
+          <t>{'iterations': 10000, 'learning_rate': 0.036232951900213306, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.640921865280573, 'max_ctr_complexity': 3, 'one_hot_max_size': 5}</t>
         </is>
       </c>
       <c r="AL61" t="inlineStr">
         <is>
-          <t>{'iterations': 115}</t>
+          <t>{'iterations': 154}</t>
         </is>
       </c>
       <c r="AM61" t="inlineStr">
@@ -9438,7 +9438,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CatBoost_r128</t>
+          <t>LightGBM_r15</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -9448,37 +9448,37 @@
         <v>0.8857142857142857</v>
       </c>
       <c r="D62" t="n">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="E62" t="n">
-        <v>0.6542857142857142</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G62" t="n">
-        <v>0.6621417797888387</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="H62" t="n">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="I62" t="n">
         <v>0.7262737262737263</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K62" t="n">
         <v>0.4285714285714285</v>
       </c>
       <c r="L62" t="n">
-        <v>-0.5388538888937792</v>
+        <v>-0.4632727983472912</v>
       </c>
       <c r="M62" t="n">
-        <v>-0.01945208126570308</v>
+        <v>0.09263919055559934</v>
       </c>
       <c r="N62" t="n">
-        <v>0.7806989579048403</v>
+        <v>0.8183868549822497</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -9486,22 +9486,22 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.006011724472045898</v>
+        <v>0.006486892700195312</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>0.004014492034912109</v>
       </c>
       <c r="R62" t="n">
-        <v>2.583220243453979</v>
+        <v>0.5180253982543945</v>
       </c>
       <c r="S62" t="n">
-        <v>0.006011724472045898</v>
+        <v>0.006486892700195312</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>0.004014492034912109</v>
       </c>
       <c r="U62" t="n">
-        <v>2.583220243453979</v>
+        <v>0.5180253982543945</v>
       </c>
       <c r="V62" t="n">
         <v>1</v>
@@ -9510,7 +9510,7 @@
         <v>1</v>
       </c>
       <c r="X62" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="Y62" t="n">
         <v>19</v>
@@ -9522,16 +9522,16 @@
         <v>1</v>
       </c>
       <c r="AB62" t="n">
-        <v>738417</v>
+        <v>661730</v>
       </c>
       <c r="AC62" t="n">
-        <v>738417</v>
+        <v>661730</v>
       </c>
       <c r="AD62" t="n">
-        <v>738417</v>
+        <v>661730</v>
       </c>
       <c r="AE62" t="n">
-        <v>738417</v>
+        <v>661730</v>
       </c>
       <c r="AF62" t="n">
         <v>0</v>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>CatBoostModel</t>
+          <t>LGBModel</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr"/>
@@ -9552,12 +9552,12 @@
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>{'iterations': 10000, 'learning_rate': 0.036232951900213306, 'random_seed': 0, 'allow_writing_files': False, 'eval_metric': 'Logloss', 'depth': 8, 'grow_policy': 'Depthwise', 'l2_leaf_reg': 1.640921865280573, 'max_ctr_complexity': 3, 'one_hot_max_size': 5}</t>
+          <t>{'learning_rate': 0.018603888565740096, 'extra_trees': False, 'feature_fraction': 0.7421180622507277, 'min_data_in_leaf': 6, 'num_leaves': 22}</t>
         </is>
       </c>
       <c r="AL62" t="inlineStr">
         <is>
-          <t>{'iterations': 154}</t>
+          <t>{'num_boost_round': 263}</t>
         </is>
       </c>
       <c r="AM62" t="inlineStr">
@@ -9636,22 +9636,22 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.03531408309936523</v>
+        <v>0.03934884071350098</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.008966445922851562</v>
+        <v>0.01002597808837891</v>
       </c>
       <c r="R63" t="n">
-        <v>0.9304723739624023</v>
+        <v>1.388059377670288</v>
       </c>
       <c r="S63" t="n">
-        <v>0.03531408309936523</v>
+        <v>0.03934884071350098</v>
       </c>
       <c r="T63" t="n">
-        <v>0.008966445922851562</v>
+        <v>0.01002597808837891</v>
       </c>
       <c r="U63" t="n">
-        <v>0.9304723739624023</v>
+        <v>1.388059377670288</v>
       </c>
       <c r="V63" t="n">
         <v>1</v>
@@ -9786,22 +9786,22 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.001999616622924805</v>
+        <v>0.004172801971435547</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>0.0004727840423583984</v>
       </c>
       <c r="R64" t="n">
-        <v>0.6667368412017822</v>
+        <v>0.9054012298583984</v>
       </c>
       <c r="S64" t="n">
-        <v>0.001999616622924805</v>
+        <v>0.004172801971435547</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>0.0004727840423583984</v>
       </c>
       <c r="U64" t="n">
-        <v>0.6667368412017822</v>
+        <v>0.9054012298583984</v>
       </c>
       <c r="V64" t="n">
         <v>1</v>
@@ -9936,22 +9936,22 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.004247903823852539</v>
+        <v>0.004475831985473633</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>0.5835814476013184</v>
+        <v>0.7979171276092529</v>
       </c>
       <c r="S65" t="n">
-        <v>0.004247903823852539</v>
+        <v>0.004475831985473633</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
       </c>
       <c r="U65" t="n">
-        <v>0.5835814476013184</v>
+        <v>0.7979171276092529</v>
       </c>
       <c r="V65" t="n">
         <v>1</v>
@@ -10084,18 +10084,18 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.01018810272216797</v>
+        <v>0.01211047172546387</v>
       </c>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="n">
-        <v>0.05557060241699219</v>
+        <v>0.06070756912231445</v>
       </c>
       <c r="S66" t="n">
-        <v>0.01018810272216797</v>
+        <v>0.01211047172546387</v>
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="n">
-        <v>0.05557060241699219</v>
+        <v>0.06070756912231445</v>
       </c>
       <c r="V66" t="n">
         <v>1</v>
@@ -10230,22 +10230,22 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.06619405746459961</v>
+        <v>0.06906509399414062</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.03882718086242676</v>
+        <v>0.03928089141845703</v>
       </c>
       <c r="R67" t="n">
-        <v>0.7617857456207275</v>
+        <v>0.8580176830291748</v>
       </c>
       <c r="S67" t="n">
-        <v>0.06619405746459961</v>
+        <v>0.06906509399414062</v>
       </c>
       <c r="T67" t="n">
-        <v>0.03882718086242676</v>
+        <v>0.03928089141845703</v>
       </c>
       <c r="U67" t="n">
-        <v>0.7617857456207275</v>
+        <v>0.8580176830291748</v>
       </c>
       <c r="V67" t="n">
         <v>1</v>
@@ -10378,18 +10378,18 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.003556966781616211</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="n">
-        <v>0.1494045257568359</v>
+        <v>0.1876184940338135</v>
       </c>
       <c r="S68" t="n">
-        <v>0.003556966781616211</v>
+        <v>0.00400853157043457</v>
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>0.1494045257568359</v>
+        <v>0.1876184940338135</v>
       </c>
       <c r="V68" t="n">
         <v>1</v>
@@ -10524,22 +10524,22 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.04885625839233398</v>
+        <v>0.05770754814147949</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.01572299003601074</v>
+        <v>0.005029916763305664</v>
       </c>
       <c r="R69" t="n">
-        <v>94.75444650650024</v>
+        <v>116.3647711277008</v>
       </c>
       <c r="S69" t="n">
-        <v>0.04885625839233398</v>
+        <v>0.05770754814147949</v>
       </c>
       <c r="T69" t="n">
-        <v>0.01572299003601074</v>
+        <v>0.005029916763305664</v>
       </c>
       <c r="U69" t="n">
-        <v>94.75444650650024</v>
+        <v>116.3647711277008</v>
       </c>
       <c r="V69" t="n">
         <v>1</v>
@@ -10674,22 +10674,22 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.06668257713317871</v>
+        <v>0.07964992523193359</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.03919172286987305</v>
+        <v>0.05286288261413574</v>
       </c>
       <c r="R70" t="n">
-        <v>0.8834602832794189</v>
+        <v>0.8634850978851318</v>
       </c>
       <c r="S70" t="n">
-        <v>0.06668257713317871</v>
+        <v>0.07964992523193359</v>
       </c>
       <c r="T70" t="n">
-        <v>0.03919172286987305</v>
+        <v>0.05286288261413574</v>
       </c>
       <c r="U70" t="n">
-        <v>0.8834602832794189</v>
+        <v>0.8634850978851318</v>
       </c>
       <c r="V70" t="n">
         <v>1</v>
@@ -10824,22 +10824,22 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.06287503242492676</v>
+        <v>0.07154273986816406</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.03854846954345703</v>
+        <v>0.04104375839233398</v>
       </c>
       <c r="R71" t="n">
-        <v>0.5222294330596924</v>
+        <v>0.6164038181304932</v>
       </c>
       <c r="S71" t="n">
-        <v>0.06287503242492676</v>
+        <v>0.07154273986816406</v>
       </c>
       <c r="T71" t="n">
-        <v>0.03854846954345703</v>
+        <v>0.04104375839233398</v>
       </c>
       <c r="U71" t="n">
-        <v>0.5222294330596924</v>
+        <v>0.6164038181304932</v>
       </c>
       <c r="V71" t="n">
         <v>1</v>
@@ -10972,18 +10972,18 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>0.004789113998413086</v>
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>2.142896890640259</v>
+        <v>2.986120700836182</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>0.004789113998413086</v>
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="n">
-        <v>2.142896890640259</v>
+        <v>2.986120700836182</v>
       </c>
       <c r="V72" t="n">
         <v>1</v>
@@ -11118,22 +11118,22 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.005997896194458008</v>
+        <v>0.007525920867919922</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>3.655202150344849</v>
+        <v>4.829401016235352</v>
       </c>
       <c r="S73" t="n">
-        <v>0.005997896194458008</v>
+        <v>0.007525920867919922</v>
       </c>
       <c r="T73" t="n">
         <v>0</v>
       </c>
       <c r="U73" t="n">
-        <v>3.655202150344849</v>
+        <v>4.829401016235352</v>
       </c>
       <c r="V73" t="n">
         <v>1</v>
@@ -11266,18 +11266,18 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0143134593963623</v>
+        <v>0.01926589012145996</v>
       </c>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="n">
-        <v>1.425962209701538</v>
+        <v>1.685276508331299</v>
       </c>
       <c r="S74" t="n">
-        <v>0.002441644668579102</v>
+        <v>0.003007888793945312</v>
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="n">
-        <v>0.1160633563995361</v>
+        <v>0.1286566257476807</v>
       </c>
       <c r="V74" t="n">
         <v>2</v>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="AS74" t="inlineStr">
         <is>
-          <t>['NeuralNetFastAI_r156_FULL', 'CatBoost_r5_FULL']</t>
+          <t>['CatBoost_r5_FULL', 'NeuralNetFastAI_r156_FULL']</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr">
@@ -11426,18 +11426,18 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.008190393447875977</v>
+        <v>0.01112270355224609</v>
       </c>
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="n">
-        <v>0.2035791873931885</v>
+        <v>0.2460858821868896</v>
       </c>
       <c r="S75" t="n">
-        <v>0.008190393447875977</v>
+        <v>0.01112270355224609</v>
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>0.2035791873931885</v>
+        <v>0.2460858821868896</v>
       </c>
       <c r="V75" t="n">
         <v>1</v>
@@ -11570,18 +11570,18 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.006504297256469727</v>
+        <v>0.006273031234741211</v>
       </c>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="n">
-        <v>0.1687233448028564</v>
+        <v>0.2189059257507324</v>
       </c>
       <c r="S76" t="n">
-        <v>0.006504297256469727</v>
+        <v>0.006273031234741211</v>
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>0.1687233448028564</v>
+        <v>0.2189059257507324</v>
       </c>
       <c r="V76" t="n">
         <v>1</v>
@@ -11716,22 +11716,22 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.05357718467712402</v>
+        <v>0.06976962089538574</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.03976607322692871</v>
+        <v>0.049530029296875</v>
       </c>
       <c r="R77" t="n">
-        <v>1.07993745803833</v>
+        <v>0.897188663482666</v>
       </c>
       <c r="S77" t="n">
-        <v>0.05357718467712402</v>
+        <v>0.06976962089538574</v>
       </c>
       <c r="T77" t="n">
-        <v>0.03976607322692871</v>
+        <v>0.049530029296875</v>
       </c>
       <c r="U77" t="n">
-        <v>1.07993745803833</v>
+        <v>0.897188663482666</v>
       </c>
       <c r="V77" t="n">
         <v>1</v>
@@ -11866,22 +11866,22 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0644233226776123</v>
+        <v>0.0748751163482666</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.04769182205200195</v>
+        <v>0.04926204681396484</v>
       </c>
       <c r="R78" t="n">
-        <v>0.5414869785308838</v>
+        <v>0.6265206336975098</v>
       </c>
       <c r="S78" t="n">
-        <v>0.0644233226776123</v>
+        <v>0.0748751163482666</v>
       </c>
       <c r="T78" t="n">
-        <v>0.04769182205200195</v>
+        <v>0.04926204681396484</v>
       </c>
       <c r="U78" t="n">
-        <v>0.5414869785308838</v>
+        <v>0.6265206336975098</v>
       </c>
       <c r="V78" t="n">
         <v>1</v>
@@ -12016,22 +12016,22 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.03508687019348145</v>
+        <v>0.03459739685058594</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.0172274112701416</v>
+        <v>0.005999326705932617</v>
       </c>
       <c r="R79" t="n">
-        <v>1.647099733352661</v>
+        <v>2.5808265209198</v>
       </c>
       <c r="S79" t="n">
-        <v>0.03508687019348145</v>
+        <v>0.03459739685058594</v>
       </c>
       <c r="T79" t="n">
-        <v>0.0172274112701416</v>
+        <v>0.005999326705932617</v>
       </c>
       <c r="U79" t="n">
-        <v>1.647099733352661</v>
+        <v>2.5808265209198</v>
       </c>
       <c r="V79" t="n">
         <v>1</v>
@@ -12166,22 +12166,22 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.06810975074768066</v>
+        <v>0.07239770889282227</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.04824209213256836</v>
+        <v>0.0521080493927002</v>
       </c>
       <c r="R80" t="n">
-        <v>0.5759856700897217</v>
+        <v>0.6296889781951904</v>
       </c>
       <c r="S80" t="n">
-        <v>0.06810975074768066</v>
+        <v>0.07239770889282227</v>
       </c>
       <c r="T80" t="n">
-        <v>0.04824209213256836</v>
+        <v>0.0521080493927002</v>
       </c>
       <c r="U80" t="n">
-        <v>0.5759856700897217</v>
+        <v>0.6296889781951904</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -12314,18 +12314,18 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.06618547439575195</v>
+        <v>0.08138537406921387</v>
       </c>
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="n">
-        <v>0.5403835773468018</v>
+        <v>0.6830923557281494</v>
       </c>
       <c r="S81" t="n">
-        <v>0.06618547439575195</v>
+        <v>0.08138537406921387</v>
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="n">
-        <v>0.5403835773468018</v>
+        <v>0.6830923557281494</v>
       </c>
       <c r="V81" t="n">
         <v>1</v>
@@ -12458,18 +12458,18 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.06665229797363281</v>
+        <v>0.08252954483032227</v>
       </c>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="n">
-        <v>0.7710504531860352</v>
+        <v>0.8884561061859131</v>
       </c>
       <c r="S82" t="n">
-        <v>0.06665229797363281</v>
+        <v>0.08252954483032227</v>
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>0.7710504531860352</v>
+        <v>0.8884561061859131</v>
       </c>
       <c r="V82" t="n">
         <v>1</v>
@@ -12602,18 +12602,18 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0648338794708252</v>
+        <v>0.08082866668701172</v>
       </c>
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="n">
-        <v>0.6224312782287598</v>
+        <v>0.7847232818603516</v>
       </c>
       <c r="S83" t="n">
-        <v>0.0648338794708252</v>
+        <v>0.08082866668701172</v>
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>0.6224312782287598</v>
+        <v>0.7847232818603516</v>
       </c>
       <c r="V83" t="n">
         <v>1</v>
@@ -12746,18 +12746,18 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.06854701042175293</v>
+        <v>0.05315113067626953</v>
       </c>
       <c r="Q84" t="inlineStr"/>
       <c r="R84" t="n">
-        <v>0.5151793956756592</v>
+        <v>0.6282639503479004</v>
       </c>
       <c r="S84" t="n">
-        <v>0.06854701042175293</v>
+        <v>0.05315113067626953</v>
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="n">
-        <v>0.5151793956756592</v>
+        <v>0.6282639503479004</v>
       </c>
       <c r="V84" t="n">
         <v>1</v>
@@ -12890,18 +12890,18 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.07621431350708008</v>
+        <v>0.08275651931762695</v>
       </c>
       <c r="Q85" t="inlineStr"/>
       <c r="R85" t="n">
-        <v>0.6097044944763184</v>
+        <v>0.7805666923522949</v>
       </c>
       <c r="S85" t="n">
-        <v>0.07621431350708008</v>
+        <v>0.08275651931762695</v>
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>0.6097044944763184</v>
+        <v>0.7805666923522949</v>
       </c>
       <c r="V85" t="n">
         <v>1</v>
@@ -13034,18 +13034,18 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.005967378616333008</v>
+        <v>0.006017446517944336</v>
       </c>
       <c r="Q86" t="inlineStr"/>
       <c r="R86" t="n">
-        <v>0.05683255195617676</v>
+        <v>0.09089207649230957</v>
       </c>
       <c r="S86" t="n">
-        <v>0.005967378616333008</v>
+        <v>0.006017446517944336</v>
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>0.05683255195617676</v>
+        <v>0.09089207649230957</v>
       </c>
       <c r="V86" t="n">
         <v>1</v>
@@ -13180,22 +13180,22 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.004674673080444336</v>
+        <v>0.006011486053466797</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
       </c>
       <c r="R87" t="n">
-        <v>0.5824933052062988</v>
+        <v>0.7649948596954346</v>
       </c>
       <c r="S87" t="n">
-        <v>0.004674673080444336</v>
+        <v>0.006011486053466797</v>
       </c>
       <c r="T87" t="n">
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>0.5824933052062988</v>
+        <v>0.7649948596954346</v>
       </c>
       <c r="V87" t="n">
         <v>1</v>
@@ -13328,18 +13328,18 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.005692005157470703</v>
+        <v>0.005074262619018555</v>
       </c>
       <c r="Q88" t="inlineStr"/>
       <c r="R88" t="n">
-        <v>0.1695966720581055</v>
+        <v>0.1807794570922852</v>
       </c>
       <c r="S88" t="n">
-        <v>0.005692005157470703</v>
+        <v>0.005074262619018555</v>
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="n">
-        <v>0.1695966720581055</v>
+        <v>0.1807794570922852</v>
       </c>
       <c r="V88" t="n">
         <v>1</v>
@@ -13472,18 +13472,18 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.03320646286010742</v>
+        <v>0.0359351634979248</v>
       </c>
       <c r="Q89" t="inlineStr"/>
       <c r="R89" t="n">
-        <v>0.5960624217987061</v>
+        <v>0.9343364238739014</v>
       </c>
       <c r="S89" t="n">
-        <v>0.03320646286010742</v>
+        <v>0.0359351634979248</v>
       </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="n">
-        <v>0.5960624217987061</v>
+        <v>0.9343364238739014</v>
       </c>
       <c r="V89" t="n">
         <v>1</v>
@@ -13616,18 +13616,18 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.02757048606872559</v>
+        <v>0.04197168350219727</v>
       </c>
       <c r="Q90" t="inlineStr"/>
       <c r="R90" t="n">
-        <v>46.21608185768127</v>
+        <v>57.17643308639526</v>
       </c>
       <c r="S90" t="n">
-        <v>0.02757048606872559</v>
+        <v>0.04197168350219727</v>
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="n">
-        <v>46.21608185768127</v>
+        <v>57.17643308639526</v>
       </c>
       <c r="V90" t="n">
         <v>1</v>
@@ -13760,18 +13760,18 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.004007577896118164</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="n">
-        <v>0.1386151313781738</v>
+        <v>0.1979231834411621</v>
       </c>
       <c r="S91" t="n">
-        <v>0.004007577896118164</v>
+        <v>0.004011869430541992</v>
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="n">
-        <v>0.1386151313781738</v>
+        <v>0.1979231834411621</v>
       </c>
       <c r="V91" t="n">
         <v>1</v>
@@ -13906,22 +13906,22 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.006012678146362305</v>
+        <v>0.00500035285949707</v>
       </c>
       <c r="Q92" t="n">
-        <v>0</v>
+        <v>0.01526355743408203</v>
       </c>
       <c r="R92" t="n">
-        <v>1.720521688461304</v>
+        <v>2.439117193222046</v>
       </c>
       <c r="S92" t="n">
-        <v>0.006012678146362305</v>
+        <v>0.00500035285949707</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>0.01526355743408203</v>
       </c>
       <c r="U92" t="n">
-        <v>1.720521688461304</v>
+        <v>2.439117193222046</v>
       </c>
       <c r="V92" t="n">
         <v>1</v>
@@ -14056,22 +14056,22 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.006012916564941406</v>
+        <v>0.006012201309204102</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>0.00200653076171875</v>
       </c>
       <c r="R93" t="n">
-        <v>0.3688580989837646</v>
+        <v>0.5691862106323242</v>
       </c>
       <c r="S93" t="n">
-        <v>0.006012916564941406</v>
+        <v>0.006012201309204102</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>0.00200653076171875</v>
       </c>
       <c r="U93" t="n">
-        <v>0.3688580989837646</v>
+        <v>0.5691862106323242</v>
       </c>
       <c r="V93" t="n">
         <v>1</v>
@@ -14206,22 +14206,22 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.01556897163391113</v>
+        <v>0.01433467864990234</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.002002477645874023</v>
+        <v>0.004009246826171875</v>
       </c>
       <c r="R94" t="n">
-        <v>0.2838926315307617</v>
+        <v>0.3956584930419922</v>
       </c>
       <c r="S94" t="n">
-        <v>0.01556897163391113</v>
+        <v>0.01433467864990234</v>
       </c>
       <c r="T94" t="n">
-        <v>0.002002477645874023</v>
+        <v>0.004009246826171875</v>
       </c>
       <c r="U94" t="n">
-        <v>0.2838926315307617</v>
+        <v>0.3956584930419922</v>
       </c>
       <c r="V94" t="n">
         <v>1</v>
@@ -14356,22 +14356,22 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.01431846618652344</v>
+        <v>0.02338886260986328</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.002005577087402344</v>
+        <v>0.002007961273193359</v>
       </c>
       <c r="R95" t="n">
-        <v>0.2184748649597168</v>
+        <v>0.324068546295166</v>
       </c>
       <c r="S95" t="n">
-        <v>0.01431846618652344</v>
+        <v>0.02338886260986328</v>
       </c>
       <c r="T95" t="n">
-        <v>0.002005577087402344</v>
+        <v>0.002007961273193359</v>
       </c>
       <c r="U95" t="n">
-        <v>0.2184748649597168</v>
+        <v>0.324068546295166</v>
       </c>
       <c r="V95" t="n">
         <v>1</v>
@@ -14504,18 +14504,18 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0205543041229248</v>
+        <v>0.01001882553100586</v>
       </c>
       <c r="Q96" t="inlineStr"/>
       <c r="R96" t="n">
-        <v>0.2564737796783447</v>
+        <v>0.3389782905578613</v>
       </c>
       <c r="S96" t="n">
-        <v>0.0205543041229248</v>
+        <v>0.01001882553100586</v>
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>0.2564737796783447</v>
+        <v>0.3389782905578613</v>
       </c>
       <c r="V96" t="n">
         <v>1</v>
@@ -14650,22 +14650,22 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.006577491760253906</v>
+        <v>0.005273342132568359</v>
       </c>
       <c r="Q97" t="n">
-        <v>0</v>
+        <v>0.003699541091918945</v>
       </c>
       <c r="R97" t="n">
-        <v>0.409052848815918</v>
+        <v>0.7784490585327148</v>
       </c>
       <c r="S97" t="n">
-        <v>0.006577491760253906</v>
+        <v>0.005273342132568359</v>
       </c>
       <c r="T97" t="n">
-        <v>0</v>
+        <v>0.003699541091918945</v>
       </c>
       <c r="U97" t="n">
-        <v>0.409052848815918</v>
+        <v>0.7784490585327148</v>
       </c>
       <c r="V97" t="n">
         <v>1</v>
@@ -14800,22 +14800,22 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0164036750793457</v>
+        <v>0.01700019836425781</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.007760524749755859</v>
+        <v>0.009513139724731445</v>
       </c>
       <c r="R98" t="n">
-        <v>0.2761797904968262</v>
+        <v>0.3737468719482422</v>
       </c>
       <c r="S98" t="n">
-        <v>0.0164036750793457</v>
+        <v>0.01700019836425781</v>
       </c>
       <c r="T98" t="n">
-        <v>0.007760524749755859</v>
+        <v>0.009513139724731445</v>
       </c>
       <c r="U98" t="n">
-        <v>0.2761797904968262</v>
+        <v>0.3737468719482422</v>
       </c>
       <c r="V98" t="n">
         <v>1</v>
@@ -14948,18 +14948,18 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.002004146575927734</v>
+        <v>0.002006769180297852</v>
       </c>
       <c r="Q99" t="inlineStr"/>
       <c r="R99" t="n">
-        <v>0.1223762035369873</v>
+        <v>0.167809009552002</v>
       </c>
       <c r="S99" t="n">
-        <v>0.002004146575927734</v>
+        <v>0.002006769180297852</v>
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>0.1223762035369873</v>
+        <v>0.167809009552002</v>
       </c>
       <c r="V99" t="n">
         <v>1</v>
@@ -15092,18 +15092,18 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.05227017402648926</v>
+        <v>0.05188727378845215</v>
       </c>
       <c r="Q100" t="inlineStr"/>
       <c r="R100" t="n">
-        <v>0.5132689476013184</v>
+        <v>0.5552418231964111</v>
       </c>
       <c r="S100" t="n">
-        <v>0.05227017402648926</v>
+        <v>0.05188727378845215</v>
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>0.5132689476013184</v>
+        <v>0.5552418231964111</v>
       </c>
       <c r="V100" t="n">
         <v>1</v>
@@ -15236,18 +15236,18 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.06378769874572754</v>
+        <v>0.07170271873474121</v>
       </c>
       <c r="Q101" t="inlineStr"/>
       <c r="R101" t="n">
-        <v>0.5432565212249756</v>
+        <v>0.7132744789123535</v>
       </c>
       <c r="S101" t="n">
-        <v>0.06378769874572754</v>
+        <v>0.07170271873474121</v>
       </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>0.5432565212249756</v>
+        <v>0.7132744789123535</v>
       </c>
       <c r="V101" t="n">
         <v>1</v>
@@ -15380,18 +15380,18 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>0.002005100250244141</v>
+        <v>0.001618862152099609</v>
       </c>
       <c r="Q102" t="inlineStr"/>
       <c r="R102" t="n">
-        <v>0.148385763168335</v>
+        <v>0.1690590381622314</v>
       </c>
       <c r="S102" t="n">
-        <v>0.002005100250244141</v>
+        <v>0.001618862152099609</v>
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="n">
-        <v>0.148385763168335</v>
+        <v>0.1690590381622314</v>
       </c>
       <c r="V102" t="n">
         <v>1</v>
@@ -15524,18 +15524,18 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>0.009693384170532227</v>
+        <v>0.01102328300476074</v>
       </c>
       <c r="Q103" t="inlineStr"/>
       <c r="R103" t="n">
-        <v>5.958802700042725</v>
+        <v>7.474675178527832</v>
       </c>
       <c r="S103" t="n">
-        <v>0.009693384170532227</v>
+        <v>0.01102328300476074</v>
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="n">
-        <v>5.958802700042725</v>
+        <v>7.474675178527832</v>
       </c>
       <c r="V103" t="n">
         <v>1</v>
@@ -15670,22 +15670,22 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>0.004007577896118164</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>0.5690679550170898</v>
+        <v>0.7934377193450928</v>
       </c>
       <c r="S104" t="n">
-        <v>0.004007577896118164</v>
+        <v>0.004009008407592773</v>
       </c>
       <c r="T104" t="n">
         <v>0</v>
       </c>
       <c r="U104" t="n">
-        <v>0.5690679550170898</v>
+        <v>0.7934377193450928</v>
       </c>
       <c r="V104" t="n">
         <v>1</v>
@@ -15820,22 +15820,22 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>0.009513378143310547</v>
+        <v>0.01206660270690918</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>0.008020162582397461</v>
       </c>
       <c r="R105" t="n">
-        <v>0.6711673736572266</v>
+        <v>0.8812320232391357</v>
       </c>
       <c r="S105" t="n">
-        <v>0.009513378143310547</v>
+        <v>0.01206660270690918</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>0.008020162582397461</v>
       </c>
       <c r="U105" t="n">
-        <v>0.6711673736572266</v>
+        <v>0.8812320232391357</v>
       </c>
       <c r="V105" t="n">
         <v>1</v>
@@ -15968,18 +15968,18 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>0.06569123268127441</v>
+        <v>0.07726120948791504</v>
       </c>
       <c r="Q106" t="inlineStr"/>
       <c r="R106" t="n">
-        <v>0.5433743000030518</v>
+        <v>0.5969688892364502</v>
       </c>
       <c r="S106" t="n">
-        <v>0.06569123268127441</v>
+        <v>0.07726120948791504</v>
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="n">
-        <v>0.5433743000030518</v>
+        <v>0.5969688892364502</v>
       </c>
       <c r="V106" t="n">
         <v>1</v>
@@ -16112,18 +16112,18 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>0.002829313278198242</v>
+        <v>0.01410937309265137</v>
       </c>
       <c r="Q107" t="inlineStr"/>
       <c r="R107" t="n">
-        <v>0.3213815689086914</v>
+        <v>0.3781495094299316</v>
       </c>
       <c r="S107" t="n">
-        <v>0.002829313278198242</v>
+        <v>0.01410937309265137</v>
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="n">
-        <v>0.3213815689086914</v>
+        <v>0.3781495094299316</v>
       </c>
       <c r="V107" t="n">
         <v>1</v>
@@ -16256,18 +16256,18 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>0.002004861831665039</v>
+        <v>0.004010438919067383</v>
       </c>
       <c r="Q108" t="inlineStr"/>
       <c r="R108" t="n">
-        <v>0.1137855052947998</v>
+        <v>0.1594061851501465</v>
       </c>
       <c r="S108" t="n">
-        <v>0.002004861831665039</v>
+        <v>0.004010438919067383</v>
       </c>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="n">
-        <v>0.1137855052947998</v>
+        <v>0.1594061851501465</v>
       </c>
       <c r="V108" t="n">
         <v>1</v>
@@ -16402,22 +16402,22 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>0.01662278175354004</v>
+        <v>0.0170438289642334</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.005308151245117188</v>
+        <v>0</v>
       </c>
       <c r="R109" t="n">
-        <v>12.95985913276672</v>
+        <v>17.29565501213074</v>
       </c>
       <c r="S109" t="n">
-        <v>0.01662278175354004</v>
+        <v>0.0170438289642334</v>
       </c>
       <c r="T109" t="n">
-        <v>0.005308151245117188</v>
+        <v>0</v>
       </c>
       <c r="U109" t="n">
-        <v>12.95985913276672</v>
+        <v>17.29565501213074</v>
       </c>
       <c r="V109" t="n">
         <v>1</v>
@@ -16552,22 +16552,22 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>0.004289388656616211</v>
+        <v>0.006002664566040039</v>
       </c>
       <c r="Q110" t="n">
-        <v>0</v>
+        <v>0.002463817596435547</v>
       </c>
       <c r="R110" t="n">
-        <v>0.2928268909454346</v>
+        <v>0.361375093460083</v>
       </c>
       <c r="S110" t="n">
-        <v>0.004289388656616211</v>
+        <v>0.006002664566040039</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>0.002463817596435547</v>
       </c>
       <c r="U110" t="n">
-        <v>0.2928268909454346</v>
+        <v>0.361375093460083</v>
       </c>
       <c r="V110" t="n">
         <v>1</v>
@@ -16702,22 +16702,22 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>0.02095913887023926</v>
+        <v>0.01134061813354492</v>
       </c>
       <c r="Q111" t="n">
-        <v>0</v>
+        <v>0.004768133163452148</v>
       </c>
       <c r="R111" t="n">
-        <v>0.601137638092041</v>
+        <v>0.9878814220428467</v>
       </c>
       <c r="S111" t="n">
-        <v>0.02095913887023926</v>
+        <v>0.01134061813354492</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>0.004768133163452148</v>
       </c>
       <c r="U111" t="n">
-        <v>0.601137638092041</v>
+        <v>0.9878814220428467</v>
       </c>
       <c r="V111" t="n">
         <v>1</v>
@@ -16852,22 +16852,22 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>0.05414962768554688</v>
+        <v>0.06086063385009766</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.03943467140197754</v>
+        <v>0.04078054428100586</v>
       </c>
       <c r="R112" t="n">
-        <v>0.7916193008422852</v>
+        <v>0.7283930778503418</v>
       </c>
       <c r="S112" t="n">
-        <v>0.05414962768554688</v>
+        <v>0.06086063385009766</v>
       </c>
       <c r="T112" t="n">
-        <v>0.03943467140197754</v>
+        <v>0.04078054428100586</v>
       </c>
       <c r="U112" t="n">
-        <v>0.7916193008422852</v>
+        <v>0.7283930778503418</v>
       </c>
       <c r="V112" t="n">
         <v>1</v>
@@ -17000,18 +17000,18 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.003891468048095703</v>
       </c>
       <c r="Q113" t="inlineStr"/>
       <c r="R113" t="n">
-        <v>0.1654789447784424</v>
+        <v>0.1848058700561523</v>
       </c>
       <c r="S113" t="n">
-        <v>0.002003669738769531</v>
+        <v>0.003891468048095703</v>
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="n">
-        <v>0.1654789447784424</v>
+        <v>0.1848058700561523</v>
       </c>
       <c r="V113" t="n">
         <v>1</v>
@@ -17144,18 +17144,18 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>0.01041746139526367</v>
+        <v>0.01396989822387695</v>
       </c>
       <c r="Q114" t="inlineStr"/>
       <c r="R114" t="n">
-        <v>1.001957416534424</v>
+        <v>1.292826175689697</v>
       </c>
       <c r="S114" t="n">
-        <v>0.01041746139526367</v>
+        <v>0.01396989822387695</v>
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>1.001957416534424</v>
+        <v>1.292826175689697</v>
       </c>
       <c r="V114" t="n">
         <v>1</v>
@@ -17290,22 +17290,22 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>0.01012992858886719</v>
+        <v>0.0119938850402832</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.0160987377166748</v>
+        <v>0.009137392044067383</v>
       </c>
       <c r="R115" t="n">
-        <v>0.604731559753418</v>
+        <v>0.7675623893737793</v>
       </c>
       <c r="S115" t="n">
-        <v>0.01012992858886719</v>
+        <v>0.0119938850402832</v>
       </c>
       <c r="T115" t="n">
-        <v>0.0160987377166748</v>
+        <v>0.009137392044067383</v>
       </c>
       <c r="U115" t="n">
-        <v>0.604731559753418</v>
+        <v>0.7675623893737793</v>
       </c>
       <c r="V115" t="n">
         <v>1</v>
@@ -17440,22 +17440,22 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>0.00461125373840332</v>
+        <v>0.00500035285949707</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.002003669738769531</v>
+        <v>0</v>
       </c>
       <c r="R116" t="n">
-        <v>0.351332426071167</v>
+        <v>0.5093793869018555</v>
       </c>
       <c r="S116" t="n">
-        <v>0.00461125373840332</v>
+        <v>0.00500035285949707</v>
       </c>
       <c r="T116" t="n">
-        <v>0.002003669738769531</v>
+        <v>0</v>
       </c>
       <c r="U116" t="n">
-        <v>0.351332426071167</v>
+        <v>0.5093793869018555</v>
       </c>
       <c r="V116" t="n">
         <v>1</v>
@@ -17590,22 +17590,22 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>0.06525278091430664</v>
+        <v>0.06136131286621094</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.04014778137207031</v>
+        <v>0.0395195484161377</v>
       </c>
       <c r="R117" t="n">
-        <v>0.5758247375488281</v>
+        <v>0.5923786163330078</v>
       </c>
       <c r="S117" t="n">
-        <v>0.06525278091430664</v>
+        <v>0.06136131286621094</v>
       </c>
       <c r="T117" t="n">
-        <v>0.04014778137207031</v>
+        <v>0.0395195484161377</v>
       </c>
       <c r="U117" t="n">
-        <v>0.5758247375488281</v>
+        <v>0.5923786163330078</v>
       </c>
       <c r="V117" t="n">
         <v>1</v>
@@ -17740,22 +17740,22 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>0.0523383617401123</v>
+        <v>0.05679750442504883</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.03895044326782227</v>
+        <v>0.03922176361083984</v>
       </c>
       <c r="R118" t="n">
-        <v>0.5146119594573975</v>
+        <v>0.6199817657470703</v>
       </c>
       <c r="S118" t="n">
-        <v>0.0523383617401123</v>
+        <v>0.05679750442504883</v>
       </c>
       <c r="T118" t="n">
-        <v>0.03895044326782227</v>
+        <v>0.03922176361083984</v>
       </c>
       <c r="U118" t="n">
-        <v>0.5146119594573975</v>
+        <v>0.6199817657470703</v>
       </c>
       <c r="V118" t="n">
         <v>1</v>
@@ -17890,22 +17890,22 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>0.06596207618713379</v>
+        <v>0.07130694389343262</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.1498351097106934</v>
+        <v>0.04121923446655273</v>
       </c>
       <c r="R119" t="n">
-        <v>0.7055754661560059</v>
+        <v>0.7233757972717285</v>
       </c>
       <c r="S119" t="n">
-        <v>0.06596207618713379</v>
+        <v>0.07130694389343262</v>
       </c>
       <c r="T119" t="n">
-        <v>0.1498351097106934</v>
+        <v>0.04121923446655273</v>
       </c>
       <c r="U119" t="n">
-        <v>0.7055754661560059</v>
+        <v>0.7233757972717285</v>
       </c>
       <c r="V119" t="n">
         <v>1</v>
@@ -18040,22 +18040,22 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>0.01626014709472656</v>
+        <v>0.01450657844543457</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.002007961273193359</v>
       </c>
       <c r="R120" t="n">
-        <v>0.2862684726715088</v>
+        <v>0.650139331817627</v>
       </c>
       <c r="S120" t="n">
-        <v>0.01626014709472656</v>
+        <v>0.01450657844543457</v>
       </c>
       <c r="T120" t="n">
-        <v>0.002002716064453125</v>
+        <v>0.002007961273193359</v>
       </c>
       <c r="U120" t="n">
-        <v>0.2862684726715088</v>
+        <v>0.650139331817627</v>
       </c>
       <c r="V120" t="n">
         <v>1</v>
@@ -18190,22 +18190,22 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>0.009882450103759766</v>
+        <v>0.01096701622009277</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.00200343132019043</v>
+        <v>0.002509355545043945</v>
       </c>
       <c r="R121" t="n">
-        <v>0.2000501155853271</v>
+        <v>0.3091504573822021</v>
       </c>
       <c r="S121" t="n">
-        <v>0.009882450103759766</v>
+        <v>0.01096701622009277</v>
       </c>
       <c r="T121" t="n">
-        <v>0.00200343132019043</v>
+        <v>0.002509355545043945</v>
       </c>
       <c r="U121" t="n">
-        <v>0.2000501155853271</v>
+        <v>0.3091504573822021</v>
       </c>
       <c r="V121" t="n">
         <v>1</v>
@@ -18338,18 +18338,18 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>0.04997682571411133</v>
+        <v>0.07212471961975098</v>
       </c>
       <c r="Q122" t="inlineStr"/>
       <c r="R122" t="n">
-        <v>0.7097182273864746</v>
+        <v>0.8329899311065674</v>
       </c>
       <c r="S122" t="n">
-        <v>0.04997682571411133</v>
+        <v>0.07212471961975098</v>
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="n">
-        <v>0.7097182273864746</v>
+        <v>0.8329899311065674</v>
       </c>
       <c r="V122" t="n">
         <v>1</v>
@@ -18484,22 +18484,22 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>0.01868915557861328</v>
+        <v>0.01941943168640137</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.00400543212890625</v>
+        <v>0.002002954483032227</v>
       </c>
       <c r="R123" t="n">
-        <v>0.4337813854217529</v>
+        <v>0.5840299129486084</v>
       </c>
       <c r="S123" t="n">
-        <v>0.01868915557861328</v>
+        <v>0.01941943168640137</v>
       </c>
       <c r="T123" t="n">
-        <v>0.00400543212890625</v>
+        <v>0.002002954483032227</v>
       </c>
       <c r="U123" t="n">
-        <v>0.4337813854217529</v>
+        <v>0.5840299129486084</v>
       </c>
       <c r="V123" t="n">
         <v>1</v>
@@ -18634,22 +18634,22 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>0.0653536319732666</v>
+        <v>0.09442043304443359</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.04079818725585938</v>
+        <v>0.04177570343017578</v>
       </c>
       <c r="R124" t="n">
-        <v>0.5630090236663818</v>
+        <v>0.6214859485626221</v>
       </c>
       <c r="S124" t="n">
-        <v>0.0653536319732666</v>
+        <v>0.09442043304443359</v>
       </c>
       <c r="T124" t="n">
-        <v>0.04079818725585938</v>
+        <v>0.04177570343017578</v>
       </c>
       <c r="U124" t="n">
-        <v>0.5630090236663818</v>
+        <v>0.6214859485626221</v>
       </c>
       <c r="V124" t="n">
         <v>1</v>
@@ -18782,18 +18782,18 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>0.01044178009033203</v>
+        <v>0.01364612579345703</v>
       </c>
       <c r="Q125" t="inlineStr"/>
       <c r="R125" t="n">
-        <v>0.09170985221862793</v>
+        <v>0.1238040924072266</v>
       </c>
       <c r="S125" t="n">
-        <v>0.01044178009033203</v>
+        <v>0.01364612579345703</v>
       </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="n">
-        <v>0.09170985221862793</v>
+        <v>0.1238040924072266</v>
       </c>
       <c r="V125" t="n">
         <v>1</v>
@@ -18928,22 +18928,22 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>0.06758832931518555</v>
+        <v>0.07783246040344238</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.03781533241271973</v>
+        <v>0.04427838325500488</v>
       </c>
       <c r="R126" t="n">
-        <v>0.7935314178466797</v>
+        <v>0.7467062473297119</v>
       </c>
       <c r="S126" t="n">
-        <v>0.06758832931518555</v>
+        <v>0.07783246040344238</v>
       </c>
       <c r="T126" t="n">
-        <v>0.03781533241271973</v>
+        <v>0.04427838325500488</v>
       </c>
       <c r="U126" t="n">
-        <v>0.7935314178466797</v>
+        <v>0.7467062473297119</v>
       </c>
       <c r="V126" t="n">
         <v>1</v>
@@ -19078,22 +19078,22 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>0.003001689910888672</v>
+        <v>0.001997232437133789</v>
       </c>
       <c r="Q127" t="n">
-        <v>0</v>
+        <v>0.003754377365112305</v>
       </c>
       <c r="R127" t="n">
-        <v>0.2824022769927979</v>
+        <v>0.5093333721160889</v>
       </c>
       <c r="S127" t="n">
-        <v>0.003001689910888672</v>
+        <v>0.001997232437133789</v>
       </c>
       <c r="T127" t="n">
-        <v>0</v>
+        <v>0.003754377365112305</v>
       </c>
       <c r="U127" t="n">
-        <v>0.2824022769927979</v>
+        <v>0.5093333721160889</v>
       </c>
       <c r="V127" t="n">
         <v>1</v>
@@ -19226,18 +19226,18 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>0.01172780990600586</v>
+        <v>0.01137638092041016</v>
       </c>
       <c r="Q128" t="inlineStr"/>
       <c r="R128" t="n">
-        <v>0.1849160194396973</v>
+        <v>0.2271406650543213</v>
       </c>
       <c r="S128" t="n">
-        <v>0.01172780990600586</v>
+        <v>0.01137638092041016</v>
       </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="n">
-        <v>0.1849160194396973</v>
+        <v>0.2271406650543213</v>
       </c>
       <c r="V128" t="n">
         <v>1</v>
@@ -19372,22 +19372,22 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>0.02055644989013672</v>
+        <v>0.02163839340209961</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.003001928329467773</v>
+        <v>0.004012823104858398</v>
       </c>
       <c r="R129" t="n">
-        <v>0.4944195747375488</v>
+        <v>0.7441473007202148</v>
       </c>
       <c r="S129" t="n">
-        <v>0.02055644989013672</v>
+        <v>0.02163839340209961</v>
       </c>
       <c r="T129" t="n">
-        <v>0.003001928329467773</v>
+        <v>0.004012823104858398</v>
       </c>
       <c r="U129" t="n">
-        <v>0.4944195747375488</v>
+        <v>0.7441473007202148</v>
       </c>
       <c r="V129" t="n">
         <v>1</v>
@@ -19522,22 +19522,22 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>0.004000425338745117</v>
+        <v>0.004556417465209961</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.003157138824462891</v>
+        <v>0.003514766693115234</v>
       </c>
       <c r="R130" t="n">
-        <v>0.3382866382598877</v>
+        <v>0.4236631393432617</v>
       </c>
       <c r="S130" t="n">
-        <v>0.004000425338745117</v>
+        <v>0.004556417465209961</v>
       </c>
       <c r="T130" t="n">
-        <v>0.003157138824462891</v>
+        <v>0.003514766693115234</v>
       </c>
       <c r="U130" t="n">
-        <v>0.3382866382598877</v>
+        <v>0.4236631393432617</v>
       </c>
       <c r="V130" t="n">
         <v>1</v>
@@ -19670,18 +19670,18 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>0.01201987266540527</v>
+        <v>0.0136103630065918</v>
       </c>
       <c r="Q131" t="inlineStr"/>
       <c r="R131" t="n">
-        <v>0.3330059051513672</v>
+        <v>0.4729554653167725</v>
       </c>
       <c r="S131" t="n">
-        <v>0.01201987266540527</v>
+        <v>0.0136103630065918</v>
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="n">
-        <v>0.3330059051513672</v>
+        <v>0.4729554653167725</v>
       </c>
       <c r="V131" t="n">
         <v>1</v>
@@ -19816,22 +19816,22 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>0.02298545837402344</v>
+        <v>0.01051068305969238</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.004006624221801758</v>
+        <v>0.004520893096923828</v>
       </c>
       <c r="R132" t="n">
-        <v>0.2447910308837891</v>
+        <v>0.3158755302429199</v>
       </c>
       <c r="S132" t="n">
-        <v>0.02298545837402344</v>
+        <v>0.01051068305969238</v>
       </c>
       <c r="T132" t="n">
-        <v>0.004006624221801758</v>
+        <v>0.004520893096923828</v>
       </c>
       <c r="U132" t="n">
-        <v>0.2447910308837891</v>
+        <v>0.3158755302429199</v>
       </c>
       <c r="V132" t="n">
         <v>1</v>
@@ -19966,22 +19966,22 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>0.005909204483032227</v>
+        <v>0.007399559020996094</v>
       </c>
       <c r="Q133" t="n">
         <v>0</v>
       </c>
       <c r="R133" t="n">
-        <v>2.185541868209839</v>
+        <v>2.933862924575806</v>
       </c>
       <c r="S133" t="n">
-        <v>0.005909204483032227</v>
+        <v>0.007399559020996094</v>
       </c>
       <c r="T133" t="n">
         <v>0</v>
       </c>
       <c r="U133" t="n">
-        <v>2.185541868209839</v>
+        <v>2.933862924575806</v>
       </c>
       <c r="V133" t="n">
         <v>1</v>
@@ -20116,22 +20116,22 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>0.002996921539306641</v>
+        <v>0.01369237899780273</v>
       </c>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>0.0004332065582275391</v>
       </c>
       <c r="R134" t="n">
-        <v>0.5499227046966553</v>
+        <v>0.7477507591247559</v>
       </c>
       <c r="S134" t="n">
-        <v>0.002996921539306641</v>
+        <v>0.01369237899780273</v>
       </c>
       <c r="T134" t="n">
-        <v>0</v>
+        <v>0.0004332065582275391</v>
       </c>
       <c r="U134" t="n">
-        <v>0.5499227046966553</v>
+        <v>0.7477507591247559</v>
       </c>
       <c r="V134" t="n">
         <v>1</v>
@@ -20264,18 +20264,18 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>0.007225990295410156</v>
+        <v>0.01163268089294434</v>
       </c>
       <c r="Q135" t="inlineStr"/>
       <c r="R135" t="n">
-        <v>1.634861707687378</v>
+        <v>2.057296991348267</v>
       </c>
       <c r="S135" t="n">
-        <v>0.007225990295410156</v>
+        <v>0.01163268089294434</v>
       </c>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="n">
-        <v>1.634861707687378</v>
+        <v>2.057296991348267</v>
       </c>
       <c r="V135" t="n">
         <v>1</v>
@@ -20408,18 +20408,18 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>0.01323533058166504</v>
+        <v>0.01433563232421875</v>
       </c>
       <c r="Q136" t="inlineStr"/>
       <c r="R136" t="n">
-        <v>0.1416356563568115</v>
+        <v>0.1826121807098389</v>
       </c>
       <c r="S136" t="n">
-        <v>0.01323533058166504</v>
+        <v>0.01433563232421875</v>
       </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="n">
-        <v>0.1416356563568115</v>
+        <v>0.1826121807098389</v>
       </c>
       <c r="V136" t="n">
         <v>1</v>
@@ -20552,18 +20552,18 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>0.009361028671264648</v>
+        <v>0.0115211009979248</v>
       </c>
       <c r="Q137" t="inlineStr"/>
       <c r="R137" t="n">
-        <v>0.0831599235534668</v>
+        <v>0.09248876571655273</v>
       </c>
       <c r="S137" t="n">
-        <v>0.009361028671264648</v>
+        <v>0.0115211009979248</v>
       </c>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="n">
-        <v>0.0831599235534668</v>
+        <v>0.09248876571655273</v>
       </c>
       <c r="V137" t="n">
         <v>1</v>
@@ -20698,22 +20698,22 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>0.003354072570800781</v>
+        <v>0.003750085830688477</v>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
       </c>
       <c r="R138" t="n">
-        <v>0.2473981380462646</v>
+        <v>0.3346428871154785</v>
       </c>
       <c r="S138" t="n">
-        <v>0.003354072570800781</v>
+        <v>0.003750085830688477</v>
       </c>
       <c r="T138" t="n">
         <v>0</v>
       </c>
       <c r="U138" t="n">
-        <v>0.2473981380462646</v>
+        <v>0.3346428871154785</v>
       </c>
       <c r="V138" t="n">
         <v>1</v>
@@ -20848,22 +20848,22 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>0.01018857955932617</v>
+        <v>0.01096773147583008</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.006197452545166016</v>
+        <v>0.007838726043701172</v>
       </c>
       <c r="R139" t="n">
-        <v>0.3236126899719238</v>
+        <v>0.4348766803741455</v>
       </c>
       <c r="S139" t="n">
-        <v>0.01018857955932617</v>
+        <v>0.01096773147583008</v>
       </c>
       <c r="T139" t="n">
-        <v>0.006197452545166016</v>
+        <v>0.007838726043701172</v>
       </c>
       <c r="U139" t="n">
-        <v>0.3236126899719238</v>
+        <v>0.4348766803741455</v>
       </c>
       <c r="V139" t="n">
         <v>1</v>
@@ -20996,18 +20996,18 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>0.06147885322570801</v>
+        <v>0.07269072532653809</v>
       </c>
       <c r="Q140" t="inlineStr"/>
       <c r="R140" t="n">
-        <v>0.5581448078155518</v>
+        <v>0.6965627670288086</v>
       </c>
       <c r="S140" t="n">
-        <v>0.06147885322570801</v>
+        <v>0.07269072532653809</v>
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="n">
-        <v>0.5581448078155518</v>
+        <v>0.6965627670288086</v>
       </c>
       <c r="V140" t="n">
         <v>1</v>
@@ -21142,22 +21142,22 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>0.003007173538208008</v>
+        <v>0.001999855041503906</v>
       </c>
       <c r="Q141" t="n">
         <v>0</v>
       </c>
       <c r="R141" t="n">
-        <v>0.2378330230712891</v>
+        <v>0.303901195526123</v>
       </c>
       <c r="S141" t="n">
-        <v>0.003007173538208008</v>
+        <v>0.001999855041503906</v>
       </c>
       <c r="T141" t="n">
         <v>0</v>
       </c>
       <c r="U141" t="n">
-        <v>0.2378330230712891</v>
+        <v>0.303901195526123</v>
       </c>
       <c r="V141" t="n">
         <v>1</v>
@@ -21292,22 +21292,22 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>0.01140427589416504</v>
+        <v>0.01117134094238281</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.002005577087402344</v>
+        <v>0.004014968872070312</v>
       </c>
       <c r="R142" t="n">
-        <v>0.2299318313598633</v>
+        <v>0.2975237369537354</v>
       </c>
       <c r="S142" t="n">
-        <v>0.01140427589416504</v>
+        <v>0.01117134094238281</v>
       </c>
       <c r="T142" t="n">
-        <v>0.002005577087402344</v>
+        <v>0.004014968872070312</v>
       </c>
       <c r="U142" t="n">
-        <v>0.2299318313598633</v>
+        <v>0.2975237369537354</v>
       </c>
       <c r="V142" t="n">
         <v>1</v>
@@ -21442,22 +21442,22 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>0.01107406616210938</v>
+        <v>0.01192688941955566</v>
       </c>
       <c r="Q143" t="n">
-        <v>0</v>
+        <v>0.01003551483154297</v>
       </c>
       <c r="R143" t="n">
-        <v>1.304277658462524</v>
+        <v>1.676638841629028</v>
       </c>
       <c r="S143" t="n">
-        <v>0.01107406616210938</v>
+        <v>0.01192688941955566</v>
       </c>
       <c r="T143" t="n">
-        <v>0</v>
+        <v>0.01003551483154297</v>
       </c>
       <c r="U143" t="n">
-        <v>1.304277658462524</v>
+        <v>1.676638841629028</v>
       </c>
       <c r="V143" t="n">
         <v>1</v>
@@ -21590,18 +21590,18 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>0.01323437690734863</v>
+        <v>0.0142514705657959</v>
       </c>
       <c r="Q144" t="inlineStr"/>
       <c r="R144" t="n">
-        <v>1.115058422088623</v>
+        <v>1.47944974899292</v>
       </c>
       <c r="S144" t="n">
-        <v>0.01323437690734863</v>
+        <v>0.0142514705657959</v>
       </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="n">
-        <v>1.115058422088623</v>
+        <v>1.47944974899292</v>
       </c>
       <c r="V144" t="n">
         <v>1</v>
@@ -21736,22 +21736,22 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>0.01044130325317383</v>
+        <v>0.004693031311035156</v>
       </c>
       <c r="Q145" t="n">
-        <v>0</v>
+        <v>0.008015155792236328</v>
       </c>
       <c r="R145" t="n">
-        <v>1.166612386703491</v>
+        <v>1.547149181365967</v>
       </c>
       <c r="S145" t="n">
-        <v>0.01044130325317383</v>
+        <v>0.004693031311035156</v>
       </c>
       <c r="T145" t="n">
-        <v>0</v>
+        <v>0.008015155792236328</v>
       </c>
       <c r="U145" t="n">
-        <v>1.166612386703491</v>
+        <v>1.547149181365967</v>
       </c>
       <c r="V145" t="n">
         <v>1</v>
@@ -21884,18 +21884,18 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>0.01378059387207031</v>
+        <v>0.01455807685852051</v>
       </c>
       <c r="Q146" t="inlineStr"/>
       <c r="R146" t="n">
-        <v>0.7992839813232422</v>
+        <v>1.049694776535034</v>
       </c>
       <c r="S146" t="n">
-        <v>0.01378059387207031</v>
+        <v>0.01455807685852051</v>
       </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="n">
-        <v>0.7992839813232422</v>
+        <v>1.049694776535034</v>
       </c>
       <c r="V146" t="n">
         <v>1</v>
@@ -22030,22 +22030,22 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>0.01346445083618164</v>
+        <v>0.01545238494873047</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.01577019691467285</v>
+        <v>0.008026123046875</v>
       </c>
       <c r="R147" t="n">
-        <v>1.94080638885498</v>
+        <v>2.483648300170898</v>
       </c>
       <c r="S147" t="n">
-        <v>0.01346445083618164</v>
+        <v>0.01545238494873047</v>
       </c>
       <c r="T147" t="n">
-        <v>0.01577019691467285</v>
+        <v>0.008026123046875</v>
       </c>
       <c r="U147" t="n">
-        <v>1.94080638885498</v>
+        <v>2.483648300170898</v>
       </c>
       <c r="V147" t="n">
         <v>1</v>
@@ -22180,22 +22180,22 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>0.01424813270568848</v>
+        <v>0.01490664482116699</v>
       </c>
       <c r="Q148" t="n">
-        <v>0</v>
+        <v>0.008000373840332031</v>
       </c>
       <c r="R148" t="n">
-        <v>0.365095853805542</v>
+        <v>0.5019392967224121</v>
       </c>
       <c r="S148" t="n">
-        <v>0.01424813270568848</v>
+        <v>0.01490664482116699</v>
       </c>
       <c r="T148" t="n">
-        <v>0</v>
+        <v>0.008000373840332031</v>
       </c>
       <c r="U148" t="n">
-        <v>0.365095853805542</v>
+        <v>0.5019392967224121</v>
       </c>
       <c r="V148" t="n">
         <v>1</v>
@@ -22330,22 +22330,22 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>0</v>
+        <v>0.0194554328918457</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.001816034317016602</v>
+        <v>0.003393411636352539</v>
       </c>
       <c r="R149" t="n">
-        <v>1.045935153961182</v>
+        <v>1.28657341003418</v>
       </c>
       <c r="S149" t="n">
-        <v>0</v>
+        <v>0.0194554328918457</v>
       </c>
       <c r="T149" t="n">
-        <v>0.001816034317016602</v>
+        <v>0.003393411636352539</v>
       </c>
       <c r="U149" t="n">
-        <v>1.045935153961182</v>
+        <v>1.28657341003418</v>
       </c>
       <c r="V149" t="n">
         <v>1</v>
@@ -22480,22 +22480,22 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>0.003434896469116211</v>
+        <v>0.004196882247924805</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.001746177673339844</v>
+        <v>0.004013299942016602</v>
       </c>
       <c r="R150" t="n">
-        <v>0.310316801071167</v>
+        <v>0.4243614673614502</v>
       </c>
       <c r="S150" t="n">
-        <v>0.003434896469116211</v>
+        <v>0.004196882247924805</v>
       </c>
       <c r="T150" t="n">
-        <v>0.001746177673339844</v>
+        <v>0.004013299942016602</v>
       </c>
       <c r="U150" t="n">
-        <v>0.310316801071167</v>
+        <v>0.4243614673614502</v>
       </c>
       <c r="V150" t="n">
         <v>1</v>
@@ -22628,18 +22628,18 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>0.0167229175567627</v>
+        <v>0.01599884033203125</v>
       </c>
       <c r="Q151" t="inlineStr"/>
       <c r="R151" t="n">
-        <v>1.823824882507324</v>
+        <v>2.414481401443481</v>
       </c>
       <c r="S151" t="n">
-        <v>0.0167229175567627</v>
+        <v>0.01599884033203125</v>
       </c>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="n">
-        <v>1.823824882507324</v>
+        <v>2.414481401443481</v>
       </c>
       <c r="V151" t="n">
         <v>1</v>
@@ -22774,22 +22774,22 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>0.05199980735778809</v>
+        <v>0.06696915626525879</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.0440824031829834</v>
+        <v>0.05189919471740723</v>
       </c>
       <c r="R152" t="n">
-        <v>0.5378224849700928</v>
+        <v>0.6653392314910889</v>
       </c>
       <c r="S152" t="n">
-        <v>0.05199980735778809</v>
+        <v>0.06696915626525879</v>
       </c>
       <c r="T152" t="n">
-        <v>0.0440824031829834</v>
+        <v>0.05189919471740723</v>
       </c>
       <c r="U152" t="n">
-        <v>0.5378224849700928</v>
+        <v>0.6653392314910889</v>
       </c>
       <c r="V152" t="n">
         <v>1</v>
@@ -22922,18 +22922,18 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>0</v>
+        <v>0.0126032829284668</v>
       </c>
       <c r="Q153" t="inlineStr"/>
       <c r="R153" t="n">
-        <v>0.1489102840423584</v>
+        <v>0.1974763870239258</v>
       </c>
       <c r="S153" t="n">
-        <v>0</v>
+        <v>0.0126032829284668</v>
       </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="n">
-        <v>0.1489102840423584</v>
+        <v>0.1974763870239258</v>
       </c>
       <c r="V153" t="n">
         <v>1</v>
@@ -23066,18 +23066,18 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>0.01542115211486816</v>
+        <v>0.01526570320129395</v>
       </c>
       <c r="Q154" t="inlineStr"/>
       <c r="R154" t="n">
-        <v>1.249294757843018</v>
+        <v>1.690150260925293</v>
       </c>
       <c r="S154" t="n">
-        <v>0.01542115211486816</v>
+        <v>0.01526570320129395</v>
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="n">
-        <v>1.249294757843018</v>
+        <v>1.690150260925293</v>
       </c>
       <c r="V154" t="n">
         <v>1</v>
@@ -23212,22 +23212,22 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>0.003918647766113281</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.01112794876098633</v>
+        <v>0.004014253616333008</v>
       </c>
       <c r="R155" t="n">
-        <v>0.3655545711517334</v>
+        <v>0.5420393943786621</v>
       </c>
       <c r="S155" t="n">
-        <v>0.003918647766113281</v>
+        <v>0.004008769989013672</v>
       </c>
       <c r="T155" t="n">
-        <v>0.01112794876098633</v>
+        <v>0.004014253616333008</v>
       </c>
       <c r="U155" t="n">
-        <v>0.3655545711517334</v>
+        <v>0.5420393943786621</v>
       </c>
       <c r="V155" t="n">
         <v>1</v>
@@ -23360,18 +23360,18 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>0.008679628372192383</v>
+        <v>0.01057600975036621</v>
       </c>
       <c r="Q156" t="inlineStr"/>
       <c r="R156" t="n">
-        <v>0.2374074459075928</v>
+        <v>0.2980132102966309</v>
       </c>
       <c r="S156" t="n">
-        <v>0.008679628372192383</v>
+        <v>0.01057600975036621</v>
       </c>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="n">
-        <v>0.2374074459075928</v>
+        <v>0.2980132102966309</v>
       </c>
       <c r="V156" t="n">
         <v>1</v>
@@ -23506,22 +23506,22 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>0.01399946212768555</v>
+        <v>0.01545381546020508</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.01887655258178711</v>
+        <v>0.009252071380615234</v>
       </c>
       <c r="R157" t="n">
-        <v>2.085576772689819</v>
+        <v>2.968019962310791</v>
       </c>
       <c r="S157" t="n">
-        <v>0.01399946212768555</v>
+        <v>0.01545381546020508</v>
       </c>
       <c r="T157" t="n">
-        <v>0.01887655258178711</v>
+        <v>0.009252071380615234</v>
       </c>
       <c r="U157" t="n">
-        <v>2.085576772689819</v>
+        <v>2.968019962310791</v>
       </c>
       <c r="V157" t="n">
         <v>1</v>
@@ -23654,18 +23654,18 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>0.013763427734375</v>
+        <v>0.01710700988769531</v>
       </c>
       <c r="Q158" t="inlineStr"/>
       <c r="R158" t="n">
-        <v>2.320479154586792</v>
+        <v>3.08931040763855</v>
       </c>
       <c r="S158" t="n">
-        <v>0.013763427734375</v>
+        <v>0.01710700988769531</v>
       </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="n">
-        <v>2.320479154586792</v>
+        <v>3.08931040763855</v>
       </c>
       <c r="V158" t="n">
         <v>1</v>
@@ -23800,22 +23800,22 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>0.01251912117004395</v>
+        <v>0.01653861999511719</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.008020162582397461</v>
+        <v>0.01173305511474609</v>
       </c>
       <c r="R159" t="n">
-        <v>2.099507093429565</v>
+        <v>2.892370939254761</v>
       </c>
       <c r="S159" t="n">
-        <v>0.01251912117004395</v>
+        <v>0.01653861999511719</v>
       </c>
       <c r="T159" t="n">
-        <v>0.008020162582397461</v>
+        <v>0.01173305511474609</v>
       </c>
       <c r="U159" t="n">
-        <v>2.099507093429565</v>
+        <v>2.892370939254761</v>
       </c>
       <c r="V159" t="n">
         <v>1</v>
@@ -23950,22 +23950,22 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>0.01548027992248535</v>
+        <v>0.01508212089538574</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.01764988899230957</v>
+        <v>0.008810281753540039</v>
       </c>
       <c r="R160" t="n">
-        <v>0.6584181785583496</v>
+        <v>0.8721146583557129</v>
       </c>
       <c r="S160" t="n">
-        <v>0.01548027992248535</v>
+        <v>0.01508212089538574</v>
       </c>
       <c r="T160" t="n">
-        <v>0.01764988899230957</v>
+        <v>0.008810281753540039</v>
       </c>
       <c r="U160" t="n">
-        <v>0.6584181785583496</v>
+        <v>0.8721146583557129</v>
       </c>
       <c r="V160" t="n">
         <v>1</v>
@@ -24100,22 +24100,22 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>0.01201987266540527</v>
+        <v>0.01399850845336914</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.002349853515625</v>
+        <v>0.008998632431030273</v>
       </c>
       <c r="R161" t="n">
-        <v>1.203373193740845</v>
+        <v>1.630539178848267</v>
       </c>
       <c r="S161" t="n">
-        <v>0.01201987266540527</v>
+        <v>0.01399850845336914</v>
       </c>
       <c r="T161" t="n">
-        <v>0.002349853515625</v>
+        <v>0.008998632431030273</v>
       </c>
       <c r="U161" t="n">
-        <v>1.203373193740845</v>
+        <v>1.630539178848267</v>
       </c>
       <c r="V161" t="n">
         <v>1</v>
@@ -24250,22 +24250,22 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>0.01202034950256348</v>
+        <v>0.01266288757324219</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.006010293960571289</v>
+        <v>0.01019549369812012</v>
       </c>
       <c r="R162" t="n">
-        <v>0.7005147933959961</v>
+        <v>0.8847255706787109</v>
       </c>
       <c r="S162" t="n">
-        <v>0.01202034950256348</v>
+        <v>0.01266288757324219</v>
       </c>
       <c r="T162" t="n">
-        <v>0.006010293960571289</v>
+        <v>0.01019549369812012</v>
       </c>
       <c r="U162" t="n">
-        <v>0.7005147933959961</v>
+        <v>0.8847255706787109</v>
       </c>
       <c r="V162" t="n">
         <v>1</v>
@@ -24398,18 +24398,18 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>0.01317548751831055</v>
+        <v>0.01451325416564941</v>
       </c>
       <c r="Q163" t="inlineStr"/>
       <c r="R163" t="n">
-        <v>0.1861958503723145</v>
+        <v>0.2894754409790039</v>
       </c>
       <c r="S163" t="n">
-        <v>0.01317548751831055</v>
+        <v>0.01451325416564941</v>
       </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="n">
-        <v>0.1861958503723145</v>
+        <v>0.2894754409790039</v>
       </c>
       <c r="V163" t="n">
         <v>1</v>
@@ -24544,22 +24544,22 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>0.007559299468994141</v>
+        <v>0.003174543380737305</v>
       </c>
       <c r="Q164" t="n">
-        <v>0</v>
+        <v>0.01003623008728027</v>
       </c>
       <c r="R164" t="n">
-        <v>1.521416187286377</v>
+        <v>1.92912483215332</v>
       </c>
       <c r="S164" t="n">
-        <v>0.007559299468994141</v>
+        <v>0.003174543380737305</v>
       </c>
       <c r="T164" t="n">
-        <v>0</v>
+        <v>0.01003623008728027</v>
       </c>
       <c r="U164" t="n">
-        <v>1.521416187286377</v>
+        <v>1.92912483215332</v>
       </c>
       <c r="V164" t="n">
         <v>1</v>
@@ -24692,18 +24692,18 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>0.009871959686279297</v>
+        <v>0.01425385475158691</v>
       </c>
       <c r="Q165" t="inlineStr"/>
       <c r="R165" t="n">
-        <v>1.211778402328491</v>
+        <v>1.440892219543457</v>
       </c>
       <c r="S165" t="n">
-        <v>0.009871959686279297</v>
+        <v>0.01425385475158691</v>
       </c>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="n">
-        <v>1.211778402328491</v>
+        <v>1.440892219543457</v>
       </c>
       <c r="V165" t="n">
         <v>1</v>
@@ -24838,22 +24838,22 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>0.0138852596282959</v>
+        <v>0.01738238334655762</v>
       </c>
       <c r="Q166" t="n">
-        <v>0</v>
+        <v>0.008937597274780273</v>
       </c>
       <c r="R166" t="n">
-        <v>1.972118139266968</v>
+        <v>2.556496858596802</v>
       </c>
       <c r="S166" t="n">
-        <v>0.0138852596282959</v>
+        <v>0.01738238334655762</v>
       </c>
       <c r="T166" t="n">
-        <v>0</v>
+        <v>0.008937597274780273</v>
       </c>
       <c r="U166" t="n">
-        <v>1.972118139266968</v>
+        <v>2.556496858596802</v>
       </c>
       <c r="V166" t="n">
         <v>1</v>
@@ -24988,22 +24988,22 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>0.01196002960205078</v>
+        <v>0.01160645484924316</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.0199580192565918</v>
+        <v>0.008904457092285156</v>
       </c>
       <c r="R167" t="n">
-        <v>0.5333104133605957</v>
+        <v>0.6241919994354248</v>
       </c>
       <c r="S167" t="n">
-        <v>0.01196002960205078</v>
+        <v>0.01160645484924316</v>
       </c>
       <c r="T167" t="n">
-        <v>0.0199580192565918</v>
+        <v>0.008904457092285156</v>
       </c>
       <c r="U167" t="n">
-        <v>0.5333104133605957</v>
+        <v>0.6241919994354248</v>
       </c>
       <c r="V167" t="n">
         <v>1</v>
@@ -25138,22 +25138,22 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>0.008644342422485352</v>
+        <v>0.008612394332885742</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.006015300750732422</v>
       </c>
       <c r="R168" t="n">
-        <v>0.5258452892303467</v>
+        <v>0.6328098773956299</v>
       </c>
       <c r="S168" t="n">
-        <v>0.008644342422485352</v>
+        <v>0.008612394332885742</v>
       </c>
       <c r="T168" t="n">
-        <v>0.004999160766601562</v>
+        <v>0.006015300750732422</v>
       </c>
       <c r="U168" t="n">
-        <v>0.5258452892303467</v>
+        <v>0.6328098773956299</v>
       </c>
       <c r="V168" t="n">
         <v>1</v>
@@ -25286,18 +25286,18 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>0.01396298408508301</v>
+        <v>0.01901483535766602</v>
       </c>
       <c r="Q169" t="inlineStr"/>
       <c r="R169" t="n">
-        <v>1.710177421569824</v>
+        <v>1.970758438110352</v>
       </c>
       <c r="S169" t="n">
-        <v>0.01396298408508301</v>
+        <v>0.01901483535766602</v>
       </c>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="n">
-        <v>1.710177421569824</v>
+        <v>1.970758438110352</v>
       </c>
       <c r="V169" t="n">
         <v>1</v>
@@ -25432,22 +25432,22 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>0</v>
+        <v>0.01051020622253418</v>
       </c>
       <c r="Q170" t="n">
-        <v>0</v>
+        <v>0.01268219947814941</v>
       </c>
       <c r="R170" t="n">
-        <v>0.8523173332214355</v>
+        <v>1.104212522506714</v>
       </c>
       <c r="S170" t="n">
-        <v>0</v>
+        <v>0.01051020622253418</v>
       </c>
       <c r="T170" t="n">
-        <v>0</v>
+        <v>0.01268219947814941</v>
       </c>
       <c r="U170" t="n">
-        <v>0.8523173332214355</v>
+        <v>1.104212522506714</v>
       </c>
       <c r="V170" t="n">
         <v>1</v>
@@ -25582,22 +25582,22 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>0.01077532768249512</v>
+        <v>0.01246070861816406</v>
       </c>
       <c r="Q171" t="n">
-        <v>0.001376867294311523</v>
+        <v>0.007000207901000977</v>
       </c>
       <c r="R171" t="n">
-        <v>1.598542451858521</v>
+        <v>2.282405376434326</v>
       </c>
       <c r="S171" t="n">
-        <v>0.01077532768249512</v>
+        <v>0.01246070861816406</v>
       </c>
       <c r="T171" t="n">
-        <v>0.001376867294311523</v>
+        <v>0.007000207901000977</v>
       </c>
       <c r="U171" t="n">
-        <v>1.598542451858521</v>
+        <v>2.282405376434326</v>
       </c>
       <c r="V171" t="n">
         <v>1</v>
@@ -25732,22 +25732,22 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>0</v>
+        <v>0.01197242736816406</v>
       </c>
       <c r="Q172" t="n">
-        <v>0</v>
+        <v>0.009999990463256836</v>
       </c>
       <c r="R172" t="n">
-        <v>0.9674496650695801</v>
+        <v>1.284081697463989</v>
       </c>
       <c r="S172" t="n">
-        <v>0</v>
+        <v>0.01197242736816406</v>
       </c>
       <c r="T172" t="n">
-        <v>0</v>
+        <v>0.009999990463256836</v>
       </c>
       <c r="U172" t="n">
-        <v>0.9674496650695801</v>
+        <v>1.284081697463989</v>
       </c>
       <c r="V172" t="n">
         <v>1</v>
@@ -25882,22 +25882,22 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>0.01546478271484375</v>
+        <v>0.0155341625213623</v>
       </c>
       <c r="Q173" t="n">
-        <v>0.01755928993225098</v>
+        <v>0.009979724884033203</v>
       </c>
       <c r="R173" t="n">
-        <v>0.5643434524536133</v>
+        <v>0.6381676197052002</v>
       </c>
       <c r="S173" t="n">
-        <v>0.01546478271484375</v>
+        <v>0.0155341625213623</v>
       </c>
       <c r="T173" t="n">
-        <v>0.01755928993225098</v>
+        <v>0.009979724884033203</v>
       </c>
       <c r="U173" t="n">
-        <v>0.5643434524536133</v>
+        <v>0.6381676197052002</v>
       </c>
       <c r="V173" t="n">
         <v>1</v>
@@ -26030,18 +26030,18 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>0.01670956611633301</v>
+        <v>0.01783919334411621</v>
       </c>
       <c r="Q174" t="inlineStr"/>
       <c r="R174" t="n">
-        <v>0.7804768085479736</v>
+        <v>0.9306397438049316</v>
       </c>
       <c r="S174" t="n">
-        <v>0.01670956611633301</v>
+        <v>0.01783919334411621</v>
       </c>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="n">
-        <v>0.7804768085479736</v>
+        <v>0.9306397438049316</v>
       </c>
       <c r="V174" t="n">
         <v>1</v>
@@ -26176,22 +26176,22 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>0.01305484771728516</v>
+        <v>0.01314759254455566</v>
       </c>
       <c r="Q175" t="n">
-        <v>0.01674652099609375</v>
+        <v>0.009616851806640625</v>
       </c>
       <c r="R175" t="n">
-        <v>1.116618871688843</v>
+        <v>1.402820348739624</v>
       </c>
       <c r="S175" t="n">
-        <v>0.01305484771728516</v>
+        <v>0.01314759254455566</v>
       </c>
       <c r="T175" t="n">
-        <v>0.01674652099609375</v>
+        <v>0.009616851806640625</v>
       </c>
       <c r="U175" t="n">
-        <v>1.116618871688843</v>
+        <v>1.402820348739624</v>
       </c>
       <c r="V175" t="n">
         <v>1</v>
@@ -26326,22 +26326,22 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>0.01626348495483398</v>
+        <v>0.01457571983337402</v>
       </c>
       <c r="Q176" t="n">
-        <v>0</v>
+        <v>0.009534120559692383</v>
       </c>
       <c r="R176" t="n">
-        <v>0.4838025569915771</v>
+        <v>0.6560919284820557</v>
       </c>
       <c r="S176" t="n">
-        <v>0.01626348495483398</v>
+        <v>0.01457571983337402</v>
       </c>
       <c r="T176" t="n">
-        <v>0</v>
+        <v>0.009534120559692383</v>
       </c>
       <c r="U176" t="n">
-        <v>0.4838025569915771</v>
+        <v>0.6560919284820557</v>
       </c>
       <c r="V176" t="n">
         <v>1</v>
@@ -26474,18 +26474,18 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>0.01451802253723145</v>
+        <v>0.01642608642578125</v>
       </c>
       <c r="Q177" t="inlineStr"/>
       <c r="R177" t="n">
-        <v>0.7459087371826172</v>
+        <v>0.8409810066223145</v>
       </c>
       <c r="S177" t="n">
-        <v>0.01451802253723145</v>
+        <v>0.01642608642578125</v>
       </c>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="n">
-        <v>0.7459087371826172</v>
+        <v>0.8409810066223145</v>
       </c>
       <c r="V177" t="n">
         <v>1</v>
@@ -26620,22 +26620,22 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>0.01934409141540527</v>
+        <v>0.002854585647583008</v>
       </c>
       <c r="Q178" t="n">
-        <v>0</v>
+        <v>0.01003408432006836</v>
       </c>
       <c r="R178" t="n">
-        <v>2.32826042175293</v>
+        <v>3.17740273475647</v>
       </c>
       <c r="S178" t="n">
-        <v>0.01934409141540527</v>
+        <v>0.002854585647583008</v>
       </c>
       <c r="T178" t="n">
-        <v>0</v>
+        <v>0.01003408432006836</v>
       </c>
       <c r="U178" t="n">
-        <v>2.32826042175293</v>
+        <v>3.17740273475647</v>
       </c>
       <c r="V178" t="n">
         <v>1</v>
@@ -26770,22 +26770,22 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>0.01363992691040039</v>
+        <v>0.006453514099121094</v>
       </c>
       <c r="Q179" t="n">
-        <v>0</v>
+        <v>0.01003408432006836</v>
       </c>
       <c r="R179" t="n">
-        <v>1.666808843612671</v>
+        <v>2.213229656219482</v>
       </c>
       <c r="S179" t="n">
-        <v>0.01363992691040039</v>
+        <v>0.006453514099121094</v>
       </c>
       <c r="T179" t="n">
-        <v>0</v>
+        <v>0.01003408432006836</v>
       </c>
       <c r="U179" t="n">
-        <v>1.666808843612671</v>
+        <v>2.213229656219482</v>
       </c>
       <c r="V179" t="n">
         <v>1</v>
@@ -26918,18 +26918,18 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>0.01063680648803711</v>
+        <v>0.01421976089477539</v>
       </c>
       <c r="Q180" t="inlineStr"/>
       <c r="R180" t="n">
-        <v>0.7130765914916992</v>
+        <v>1.075330495834351</v>
       </c>
       <c r="S180" t="n">
-        <v>0.01063680648803711</v>
+        <v>0.01421976089477539</v>
       </c>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>0.7130765914916992</v>
+        <v>1.075330495834351</v>
       </c>
       <c r="V180" t="n">
         <v>1</v>
@@ -27064,22 +27064,22 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>0.005791425704956055</v>
+        <v>0.01504254341125488</v>
       </c>
       <c r="Q181" t="n">
-        <v>0</v>
+        <v>0.01003289222717285</v>
       </c>
       <c r="R181" t="n">
-        <v>1.766394138336182</v>
+        <v>2.303616762161255</v>
       </c>
       <c r="S181" t="n">
-        <v>0.005791425704956055</v>
+        <v>0.01504254341125488</v>
       </c>
       <c r="T181" t="n">
-        <v>0</v>
+        <v>0.01003289222717285</v>
       </c>
       <c r="U181" t="n">
-        <v>1.766394138336182</v>
+        <v>2.303616762161255</v>
       </c>
       <c r="V181" t="n">
         <v>1</v>
@@ -27212,18 +27212,18 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>0.01124691963195801</v>
+        <v>0.01546645164489746</v>
       </c>
       <c r="Q182" t="inlineStr"/>
       <c r="R182" t="n">
-        <v>0.486903190612793</v>
+        <v>0.5497307777404785</v>
       </c>
       <c r="S182" t="n">
-        <v>0.01124691963195801</v>
+        <v>0.01546645164489746</v>
       </c>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>0.486903190612793</v>
+        <v>0.5497307777404785</v>
       </c>
       <c r="V182" t="n">
         <v>1</v>
@@ -27356,18 +27356,18 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>0.008851051330566406</v>
+        <v>0.01012802124023438</v>
       </c>
       <c r="Q183" t="inlineStr"/>
       <c r="R183" t="n">
-        <v>0.2502205371856689</v>
+        <v>0.3890101909637451</v>
       </c>
       <c r="S183" t="n">
-        <v>0.008851051330566406</v>
+        <v>0.01012802124023438</v>
       </c>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="n">
-        <v>0.2502205371856689</v>
+        <v>0.3890101909637451</v>
       </c>
       <c r="V183" t="n">
         <v>1</v>
@@ -27502,22 +27502,22 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>0.008012056350708008</v>
+        <v>0.00998687744140625</v>
       </c>
       <c r="Q184" t="n">
-        <v>0.01538228988647461</v>
+        <v>0.006661653518676758</v>
       </c>
       <c r="R184" t="n">
-        <v>0.567967414855957</v>
+        <v>0.770622730255127</v>
       </c>
       <c r="S184" t="n">
-        <v>0.008012056350708008</v>
+        <v>0.00998687744140625</v>
       </c>
       <c r="T184" t="n">
-        <v>0.01538228988647461</v>
+        <v>0.006661653518676758</v>
       </c>
       <c r="U184" t="n">
-        <v>0.567967414855957</v>
+        <v>0.770622730255127</v>
       </c>
       <c r="V184" t="n">
         <v>1</v>
@@ -27652,22 +27652,22 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>0.007806777954101562</v>
+        <v>0.01109647750854492</v>
       </c>
       <c r="Q185" t="n">
         <v>0</v>
       </c>
       <c r="R185" t="n">
-        <v>0.4299838542938232</v>
+        <v>0.4932596683502197</v>
       </c>
       <c r="S185" t="n">
-        <v>0.007806777954101562</v>
+        <v>0.01109647750854492</v>
       </c>
       <c r="T185" t="n">
         <v>0</v>
       </c>
       <c r="U185" t="n">
-        <v>0.4299838542938232</v>
+        <v>0.4932596683502197</v>
       </c>
       <c r="V185" t="n">
         <v>1</v>
@@ -27800,18 +27800,18 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>0.01114892959594727</v>
+        <v>0.01319074630737305</v>
       </c>
       <c r="Q186" t="inlineStr"/>
       <c r="R186" t="n">
-        <v>0.320817232131958</v>
+        <v>0.3382525444030762</v>
       </c>
       <c r="S186" t="n">
-        <v>0.01114892959594727</v>
+        <v>0.01319074630737305</v>
       </c>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="n">
-        <v>0.320817232131958</v>
+        <v>0.3382525444030762</v>
       </c>
       <c r="V186" t="n">
         <v>1</v>
@@ -27944,18 +27944,18 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.01262736320495605</v>
       </c>
       <c r="Q187" t="inlineStr"/>
       <c r="R187" t="n">
-        <v>0.3458983898162842</v>
+        <v>0.4997210502624512</v>
       </c>
       <c r="S187" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.01262736320495605</v>
       </c>
       <c r="T187" t="inlineStr"/>
       <c r="U187" t="n">
-        <v>0.3458983898162842</v>
+        <v>0.4997210502624512</v>
       </c>
       <c r="V187" t="n">
         <v>1</v>
@@ -28090,22 +28090,22 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>0.01241183280944824</v>
+        <v>0.01717233657836914</v>
       </c>
       <c r="Q188" t="n">
-        <v>0.009981632232666016</v>
+        <v>0.008013010025024414</v>
       </c>
       <c r="R188" t="n">
-        <v>0.5020961761474609</v>
+        <v>0.6651477813720703</v>
       </c>
       <c r="S188" t="n">
-        <v>0.01241183280944824</v>
+        <v>0.01717233657836914</v>
       </c>
       <c r="T188" t="n">
-        <v>0.009981632232666016</v>
+        <v>0.008013010025024414</v>
       </c>
       <c r="U188" t="n">
-        <v>0.5020961761474609</v>
+        <v>0.6651477813720703</v>
       </c>
       <c r="V188" t="n">
         <v>1</v>
@@ -28238,18 +28238,18 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>0.01302266120910645</v>
+        <v>0.01715540885925293</v>
       </c>
       <c r="Q189" t="inlineStr"/>
       <c r="R189" t="n">
-        <v>1.173504829406738</v>
+        <v>1.617284536361694</v>
       </c>
       <c r="S189" t="n">
-        <v>0.01302266120910645</v>
+        <v>0.01715540885925293</v>
       </c>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="n">
-        <v>1.173504829406738</v>
+        <v>1.617284536361694</v>
       </c>
       <c r="V189" t="n">
         <v>1</v>
@@ -28382,18 +28382,18 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>0.0124356746673584</v>
+        <v>0.01297998428344727</v>
       </c>
       <c r="Q190" t="inlineStr"/>
       <c r="R190" t="n">
-        <v>0.5584123134613037</v>
+        <v>0.7080690860748291</v>
       </c>
       <c r="S190" t="n">
-        <v>0.0124356746673584</v>
+        <v>0.01297998428344727</v>
       </c>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
-        <v>0.5584123134613037</v>
+        <v>0.7080690860748291</v>
       </c>
       <c r="V190" t="n">
         <v>1</v>
@@ -28526,18 +28526,18 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>0.01445698738098145</v>
+        <v>0.01441454887390137</v>
       </c>
       <c r="Q191" t="inlineStr"/>
       <c r="R191" t="n">
-        <v>0.4895689487457275</v>
+        <v>0.7302932739257812</v>
       </c>
       <c r="S191" t="n">
-        <v>0.01445698738098145</v>
+        <v>0.01441454887390137</v>
       </c>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
-        <v>0.4895689487457275</v>
+        <v>0.7302932739257812</v>
       </c>
       <c r="V191" t="n">
         <v>1</v>
@@ -28670,18 +28670,18 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>0.0225670337677002</v>
+        <v>0.01931953430175781</v>
       </c>
       <c r="Q192" t="inlineStr"/>
       <c r="R192" t="n">
-        <v>0.8830292224884033</v>
+        <v>1.212810039520264</v>
       </c>
       <c r="S192" t="n">
-        <v>0.0225670337677002</v>
+        <v>0.01931953430175781</v>
       </c>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="n">
-        <v>0.8830292224884033</v>
+        <v>1.212810039520264</v>
       </c>
       <c r="V192" t="n">
         <v>1</v>
@@ -28816,22 +28816,22 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>0.004793405532836914</v>
+        <v>0.004009723663330078</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.01148390769958496</v>
+        <v>0.006999731063842773</v>
       </c>
       <c r="R193" t="n">
-        <v>2.170881748199463</v>
+        <v>2.808414936065674</v>
       </c>
       <c r="S193" t="n">
-        <v>0.004793405532836914</v>
+        <v>0.004009723663330078</v>
       </c>
       <c r="T193" t="n">
-        <v>0.01148390769958496</v>
+        <v>0.006999731063842773</v>
       </c>
       <c r="U193" t="n">
-        <v>2.170881748199463</v>
+        <v>2.808414936065674</v>
       </c>
       <c r="V193" t="n">
         <v>1</v>
@@ -28964,18 +28964,18 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>0.008661746978759766</v>
+        <v>0.0111839771270752</v>
       </c>
       <c r="Q194" t="inlineStr"/>
       <c r="R194" t="n">
-        <v>0.1762180328369141</v>
+        <v>0.2826342582702637</v>
       </c>
       <c r="S194" t="n">
-        <v>0.008661746978759766</v>
+        <v>0.0111839771270752</v>
       </c>
       <c r="T194" t="inlineStr"/>
       <c r="U194" t="n">
-        <v>0.1762180328369141</v>
+        <v>0.2826342582702637</v>
       </c>
       <c r="V194" t="n">
         <v>1</v>
@@ -29110,22 +29110,22 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>0.01264214515686035</v>
+        <v>0.01550841331481934</v>
       </c>
       <c r="Q195" t="n">
-        <v>0.01669526100158691</v>
+        <v>0.008892059326171875</v>
       </c>
       <c r="R195" t="n">
-        <v>0.8787951469421387</v>
+        <v>1.062676668167114</v>
       </c>
       <c r="S195" t="n">
-        <v>0.01264214515686035</v>
+        <v>0.01550841331481934</v>
       </c>
       <c r="T195" t="n">
-        <v>0.01669526100158691</v>
+        <v>0.008892059326171875</v>
       </c>
       <c r="U195" t="n">
-        <v>0.8787951469421387</v>
+        <v>1.062676668167114</v>
       </c>
       <c r="V195" t="n">
         <v>1</v>
@@ -29260,22 +29260,22 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>0.01457619667053223</v>
+        <v>0.01465296745300293</v>
       </c>
       <c r="Q196" t="n">
-        <v>0.01601314544677734</v>
+        <v>0.01132774353027344</v>
       </c>
       <c r="R196" t="n">
-        <v>2.383187532424927</v>
+        <v>3.352479696273804</v>
       </c>
       <c r="S196" t="n">
-        <v>0.01457619667053223</v>
+        <v>0.01465296745300293</v>
       </c>
       <c r="T196" t="n">
-        <v>0.01601314544677734</v>
+        <v>0.01132774353027344</v>
       </c>
       <c r="U196" t="n">
-        <v>2.383187532424927</v>
+        <v>3.352479696273804</v>
       </c>
       <c r="V196" t="n">
         <v>1</v>
@@ -29408,18 +29408,18 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>0.006885290145874023</v>
+        <v>0.008961200714111328</v>
       </c>
       <c r="Q197" t="inlineStr"/>
       <c r="R197" t="n">
-        <v>0.5612411499023438</v>
+        <v>0.7573552131652832</v>
       </c>
       <c r="S197" t="n">
-        <v>0.006885290145874023</v>
+        <v>0.008961200714111328</v>
       </c>
       <c r="T197" t="inlineStr"/>
       <c r="U197" t="n">
-        <v>0.5612411499023438</v>
+        <v>0.7573552131652832</v>
       </c>
       <c r="V197" t="n">
         <v>1</v>
@@ -29554,22 +29554,22 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>0.01325678825378418</v>
+        <v>0.01519179344177246</v>
       </c>
       <c r="Q198" t="n">
-        <v>0.003363609313964844</v>
+        <v>0.01099872589111328</v>
       </c>
       <c r="R198" t="n">
-        <v>1.924624443054199</v>
+        <v>2.548042774200439</v>
       </c>
       <c r="S198" t="n">
-        <v>0.01325678825378418</v>
+        <v>0.01519179344177246</v>
       </c>
       <c r="T198" t="n">
-        <v>0.003363609313964844</v>
+        <v>0.01099872589111328</v>
       </c>
       <c r="U198" t="n">
-        <v>1.924624443054199</v>
+        <v>2.548042774200439</v>
       </c>
       <c r="V198" t="n">
         <v>1</v>
@@ -29702,18 +29702,18 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>0.01523327827453613</v>
+        <v>0.01938152313232422</v>
       </c>
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="n">
-        <v>0.9630520343780518</v>
+        <v>1.400204658508301</v>
       </c>
       <c r="S199" t="n">
-        <v>0.01523327827453613</v>
+        <v>0.01938152313232422</v>
       </c>
       <c r="T199" t="inlineStr"/>
       <c r="U199" t="n">
-        <v>0.9630520343780518</v>
+        <v>1.400204658508301</v>
       </c>
       <c r="V199" t="n">
         <v>1</v>
@@ -29846,18 +29846,18 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>0.004231691360473633</v>
+        <v>0.01374602317810059</v>
       </c>
       <c r="Q200" t="inlineStr"/>
       <c r="R200" t="n">
-        <v>0.3061940670013428</v>
+        <v>0.4396333694458008</v>
       </c>
       <c r="S200" t="n">
-        <v>0.004231691360473633</v>
+        <v>0.01374602317810059</v>
       </c>
       <c r="T200" t="inlineStr"/>
       <c r="U200" t="n">
-        <v>0.3061940670013428</v>
+        <v>0.4396333694458008</v>
       </c>
       <c r="V200" t="n">
         <v>1</v>
@@ -29990,18 +29990,18 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>0.01201868057250977</v>
+        <v>0.01283097267150879</v>
       </c>
       <c r="Q201" t="inlineStr"/>
       <c r="R201" t="n">
-        <v>0.4863197803497314</v>
+        <v>0.666048526763916</v>
       </c>
       <c r="S201" t="n">
-        <v>0.01201868057250977</v>
+        <v>0.01283097267150879</v>
       </c>
       <c r="T201" t="inlineStr"/>
       <c r="U201" t="n">
-        <v>0.4863197803497314</v>
+        <v>0.666048526763916</v>
       </c>
       <c r="V201" t="n">
         <v>1</v>
@@ -30134,18 +30134,18 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>0.01416683197021484</v>
+        <v>0.0146934986114502</v>
       </c>
       <c r="Q202" t="inlineStr"/>
       <c r="R202" t="n">
-        <v>0.3652448654174805</v>
+        <v>0.5023365020751953</v>
       </c>
       <c r="S202" t="n">
-        <v>0.01416683197021484</v>
+        <v>0.0146934986114502</v>
       </c>
       <c r="T202" t="inlineStr"/>
       <c r="U202" t="n">
-        <v>0.3652448654174805</v>
+        <v>0.5023365020751953</v>
       </c>
       <c r="V202" t="n">
         <v>1</v>
@@ -30280,22 +30280,22 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>0.01423835754394531</v>
+        <v>0.01326727867126465</v>
       </c>
       <c r="Q203" t="n">
-        <v>0.01667404174804688</v>
+        <v>0.006836175918579102</v>
       </c>
       <c r="R203" t="n">
-        <v>0.3341853618621826</v>
+        <v>0.4399652481079102</v>
       </c>
       <c r="S203" t="n">
-        <v>0.01423835754394531</v>
+        <v>0.01326727867126465</v>
       </c>
       <c r="T203" t="n">
-        <v>0.01667404174804688</v>
+        <v>0.006836175918579102</v>
       </c>
       <c r="U203" t="n">
-        <v>0.3341853618621826</v>
+        <v>0.4399652481079102</v>
       </c>
       <c r="V203" t="n">
         <v>1</v>
@@ -30428,18 +30428,18 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>0.01664996147155762</v>
+        <v>0.01943135261535645</v>
       </c>
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="n">
-        <v>1.967440366744995</v>
+        <v>2.886598348617554</v>
       </c>
       <c r="S204" t="n">
-        <v>0.01664996147155762</v>
+        <v>0.01943135261535645</v>
       </c>
       <c r="T204" t="inlineStr"/>
       <c r="U204" t="n">
-        <v>1.967440366744995</v>
+        <v>2.886598348617554</v>
       </c>
       <c r="V204" t="n">
         <v>1</v>
@@ -30572,18 +30572,18 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>0.01263761520385742</v>
+        <v>0.01395821571350098</v>
       </c>
       <c r="Q205" t="inlineStr"/>
       <c r="R205" t="n">
-        <v>0.4818370342254639</v>
+        <v>0.7134511470794678</v>
       </c>
       <c r="S205" t="n">
-        <v>0.01263761520385742</v>
+        <v>0.01395821571350098</v>
       </c>
       <c r="T205" t="inlineStr"/>
       <c r="U205" t="n">
-        <v>0.4818370342254639</v>
+        <v>0.7134511470794678</v>
       </c>
       <c r="V205" t="n">
         <v>1</v>
@@ -30718,22 +30718,22 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>0.01513457298278809</v>
+        <v>0.01371216773986816</v>
       </c>
       <c r="Q206" t="n">
-        <v>0.008220434188842773</v>
+        <v>0.0146796703338623</v>
       </c>
       <c r="R206" t="n">
-        <v>1.231545925140381</v>
+        <v>1.548936605453491</v>
       </c>
       <c r="S206" t="n">
-        <v>0.01513457298278809</v>
+        <v>0.01371216773986816</v>
       </c>
       <c r="T206" t="n">
-        <v>0.008220434188842773</v>
+        <v>0.0146796703338623</v>
       </c>
       <c r="U206" t="n">
-        <v>1.231545925140381</v>
+        <v>1.548936605453491</v>
       </c>
       <c r="V206" t="n">
         <v>1</v>
@@ -30866,18 +30866,18 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>0.01470065116882324</v>
+        <v>0.01519894599914551</v>
       </c>
       <c r="Q207" t="inlineStr"/>
       <c r="R207" t="n">
-        <v>0.4355518817901611</v>
+        <v>0.5881233215332031</v>
       </c>
       <c r="S207" t="n">
-        <v>0.01470065116882324</v>
+        <v>0.01519894599914551</v>
       </c>
       <c r="T207" t="inlineStr"/>
       <c r="U207" t="n">
-        <v>0.4355518817901611</v>
+        <v>0.5881233215332031</v>
       </c>
       <c r="V207" t="n">
         <v>1</v>
@@ -31012,22 +31012,22 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>0.00609898567199707</v>
+        <v>0.01114940643310547</v>
       </c>
       <c r="Q208" t="n">
-        <v>0.0163428783416748</v>
+        <v>0</v>
       </c>
       <c r="R208" t="n">
-        <v>1.998929977416992</v>
+        <v>2.579487323760986</v>
       </c>
       <c r="S208" t="n">
-        <v>0.00609898567199707</v>
+        <v>0.01114940643310547</v>
       </c>
       <c r="T208" t="n">
-        <v>0.0163428783416748</v>
+        <v>0</v>
       </c>
       <c r="U208" t="n">
-        <v>1.998929977416992</v>
+        <v>2.579487323760986</v>
       </c>
       <c r="V208" t="n">
         <v>1</v>
@@ -31162,22 +31162,22 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>0.01193809509277344</v>
+        <v>0.01603460311889648</v>
       </c>
       <c r="Q209" t="n">
-        <v>0.01554751396179199</v>
+        <v>0.008101701736450195</v>
       </c>
       <c r="R209" t="n">
-        <v>1.287973880767822</v>
+        <v>1.570694208145142</v>
       </c>
       <c r="S209" t="n">
-        <v>0.01193809509277344</v>
+        <v>0.01603460311889648</v>
       </c>
       <c r="T209" t="n">
-        <v>0.01554751396179199</v>
+        <v>0.008101701736450195</v>
       </c>
       <c r="U209" t="n">
-        <v>1.287973880767822</v>
+        <v>1.570694208145142</v>
       </c>
       <c r="V209" t="n">
         <v>1</v>
@@ -31312,22 +31312,22 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>0.01294136047363281</v>
+        <v>0.01321530342102051</v>
       </c>
       <c r="Q210" t="n">
-        <v>0.007348060607910156</v>
+        <v>0.009000062942504883</v>
       </c>
       <c r="R210" t="n">
-        <v>1.14215612411499</v>
+        <v>1.373156070709229</v>
       </c>
       <c r="S210" t="n">
-        <v>0.01294136047363281</v>
+        <v>0.01321530342102051</v>
       </c>
       <c r="T210" t="n">
-        <v>0.007348060607910156</v>
+        <v>0.009000062942504883</v>
       </c>
       <c r="U210" t="n">
-        <v>1.14215612411499</v>
+        <v>1.373156070709229</v>
       </c>
       <c r="V210" t="n">
         <v>1</v>
@@ -31462,22 +31462,22 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>0.01275348663330078</v>
+        <v>0.01528191566467285</v>
       </c>
       <c r="Q211" t="n">
-        <v>0.01775979995727539</v>
+        <v>0.01280641555786133</v>
       </c>
       <c r="R211" t="n">
-        <v>1.538136720657349</v>
+        <v>1.956708431243896</v>
       </c>
       <c r="S211" t="n">
-        <v>0.01275348663330078</v>
+        <v>0.01528191566467285</v>
       </c>
       <c r="T211" t="n">
-        <v>0.01775979995727539</v>
+        <v>0.01280641555786133</v>
       </c>
       <c r="U211" t="n">
-        <v>1.538136720657349</v>
+        <v>1.956708431243896</v>
       </c>
       <c r="V211" t="n">
         <v>1</v>
@@ -31610,18 +31610,18 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>0.009696006774902344</v>
+        <v>0.01264357566833496</v>
       </c>
       <c r="Q212" t="inlineStr"/>
       <c r="R212" t="n">
-        <v>0.4873411655426025</v>
+        <v>0.7250831127166748</v>
       </c>
       <c r="S212" t="n">
-        <v>0.009696006774902344</v>
+        <v>0.01264357566833496</v>
       </c>
       <c r="T212" t="inlineStr"/>
       <c r="U212" t="n">
-        <v>0.4873411655426025</v>
+        <v>0.7250831127166748</v>
       </c>
       <c r="V212" t="n">
         <v>1</v>
@@ -31756,22 +31756,22 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>0.01500391960144043</v>
+        <v>0.01554179191589355</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.008708000183105469</v>
+        <v>0.01105976104736328</v>
       </c>
       <c r="R213" t="n">
-        <v>1.941964864730835</v>
+        <v>2.345155239105225</v>
       </c>
       <c r="S213" t="n">
-        <v>0.01500391960144043</v>
+        <v>0.01554179191589355</v>
       </c>
       <c r="T213" t="n">
-        <v>0.008708000183105469</v>
+        <v>0.01105976104736328</v>
       </c>
       <c r="U213" t="n">
-        <v>1.941964864730835</v>
+        <v>2.345155239105225</v>
       </c>
       <c r="V213" t="n">
         <v>1</v>
@@ -31906,22 +31906,22 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>0.007844924926757812</v>
+        <v>0.01470494270324707</v>
       </c>
       <c r="Q214" t="n">
-        <v>0</v>
+        <v>0.007872581481933594</v>
       </c>
       <c r="R214" t="n">
-        <v>2.052366256713867</v>
+        <v>2.81995964050293</v>
       </c>
       <c r="S214" t="n">
-        <v>0.007844924926757812</v>
+        <v>0.01470494270324707</v>
       </c>
       <c r="T214" t="n">
-        <v>0</v>
+        <v>0.007872581481933594</v>
       </c>
       <c r="U214" t="n">
-        <v>2.052366256713867</v>
+        <v>2.81995964050293</v>
       </c>
       <c r="V214" t="n">
         <v>1</v>
@@ -32056,22 +32056,22 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>0.0140235424041748</v>
+        <v>0.02282261848449707</v>
       </c>
       <c r="Q215" t="n">
-        <v>0</v>
+        <v>0.01200079917907715</v>
       </c>
       <c r="R215" t="n">
-        <v>1.399192094802856</v>
+        <v>1.942033290863037</v>
       </c>
       <c r="S215" t="n">
-        <v>0.0140235424041748</v>
+        <v>0.02282261848449707</v>
       </c>
       <c r="T215" t="n">
-        <v>0</v>
+        <v>0.01200079917907715</v>
       </c>
       <c r="U215" t="n">
-        <v>1.399192094802856</v>
+        <v>1.942033290863037</v>
       </c>
       <c r="V215" t="n">
         <v>1</v>
@@ -32204,18 +32204,18 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>0.0149085521697998</v>
+        <v>0.0150909423828125</v>
       </c>
       <c r="Q216" t="inlineStr"/>
       <c r="R216" t="n">
-        <v>0.6936380863189697</v>
+        <v>0.7939589023590088</v>
       </c>
       <c r="S216" t="n">
-        <v>0.0149085521697998</v>
+        <v>0.0150909423828125</v>
       </c>
       <c r="T216" t="inlineStr"/>
       <c r="U216" t="n">
-        <v>0.6936380863189697</v>
+        <v>0.7939589023590088</v>
       </c>
       <c r="V216" t="n">
         <v>1</v>
@@ -32350,22 +32350,22 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>0.01515436172485352</v>
+        <v>0.01495933532714844</v>
       </c>
       <c r="Q217" t="n">
-        <v>0.01671075820922852</v>
+        <v>0.008013248443603516</v>
       </c>
       <c r="R217" t="n">
-        <v>3.713831186294556</v>
+        <v>5.219793796539307</v>
       </c>
       <c r="S217" t="n">
-        <v>0.01515436172485352</v>
+        <v>0.01495933532714844</v>
       </c>
       <c r="T217" t="n">
-        <v>0.01671075820922852</v>
+        <v>0.008013248443603516</v>
       </c>
       <c r="U217" t="n">
-        <v>3.713831186294556</v>
+        <v>5.219793796539307</v>
       </c>
       <c r="V217" t="n">
         <v>1</v>
@@ -32500,22 +32500,22 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>0.008013248443603516</v>
+        <v>0.008156061172485352</v>
       </c>
       <c r="Q218" t="n">
-        <v>0</v>
+        <v>0.005865812301635742</v>
       </c>
       <c r="R218" t="n">
-        <v>1.119753360748291</v>
+        <v>1.475875854492188</v>
       </c>
       <c r="S218" t="n">
-        <v>0.008013248443603516</v>
+        <v>0.008156061172485352</v>
       </c>
       <c r="T218" t="n">
-        <v>0</v>
+        <v>0.005865812301635742</v>
       </c>
       <c r="U218" t="n">
-        <v>1.119753360748291</v>
+        <v>1.475875854492188</v>
       </c>
       <c r="V218" t="n">
         <v>1</v>
@@ -32648,18 +32648,18 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>0.01201128959655762</v>
+        <v>0.01166319847106934</v>
       </c>
       <c r="Q219" t="inlineStr"/>
       <c r="R219" t="n">
-        <v>0.9469606876373291</v>
+        <v>1.226176023483276</v>
       </c>
       <c r="S219" t="n">
-        <v>0.01201128959655762</v>
+        <v>0.01166319847106934</v>
       </c>
       <c r="T219" t="inlineStr"/>
       <c r="U219" t="n">
-        <v>0.9469606876373291</v>
+        <v>1.226176023483276</v>
       </c>
       <c r="V219" t="n">
         <v>1</v>
